--- a/Liste Mitglieder.xlsx
+++ b/Liste Mitglieder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ec4a8a11e8d582b/Desktop/Kartei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{762A08EB-8B04-4B13-A96F-258081B27D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E54BC591-4BCB-47F8-83BD-1416FD8EBB9E}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{762A08EB-8B04-4B13-A96F-258081B27D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA58854F-99C6-4A75-87BA-EB7AD662340A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BDA9004B-4F75-4369-AFC8-265EACD9784A}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{BDA9004B-4F75-4369-AFC8-265EACD9784A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="867">
   <si>
     <t>Nachname</t>
   </si>
@@ -554,18 +554,12 @@
     <t>Zypressenplatz 20, 80519 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit langen blonden Haaren und blauen Augen. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Immobilienmakler</t>
   </si>
   <si>
     <t>Tannenallee 72, 80297 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit kurzem grauen Haar und Brille. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Viktoria</t>
   </si>
   <si>
@@ -575,9 +569,6 @@
     <t>Fliederweg 67, 80900 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit lockigen dunkelbraunen Haaren. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Herrmann</t>
   </si>
   <si>
@@ -590,9 +581,6 @@
     <t>Akazienplatz 98, 80771 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines schlanken jungen Mannes mit kurzen blonden Haaren und grünen Augen. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Krüger</t>
   </si>
   <si>
@@ -602,18 +590,12 @@
     <t>Farnweg 23, 80262 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit mittellangen dunkelbraunen Haaren. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Lars</t>
   </si>
   <si>
     <t>Tulpenallee 44, 80134 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines großen Mannes mit kurzen schwarzen Haaren und einem Dreitagebart. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Zimmermann</t>
   </si>
   <si>
@@ -626,9 +608,6 @@
     <t>Magnolienplatz 96, 80348 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken jungen Frau mit langen blonden Haaren. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Schulze</t>
   </si>
   <si>
@@ -641,18 +620,12 @@
     <t>Asternweg 59, 80462 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit Brille und mittellangem grauem Haar. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Modedesignerin</t>
   </si>
   <si>
     <t>Orchideenallee 82, 80803 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit kurzen roten Haaren und Sommersprossen. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Maier</t>
   </si>
   <si>
@@ -665,9 +638,6 @@
     <t>Eukalyptusallee 15, 80683 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines großen Mannes mit kurzen dunkelblonden Haaren und einer runden Brille. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Köhler</t>
   </si>
   <si>
@@ -680,9 +650,6 @@
     <t>Palmplatz 21, 80520 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit mittellangen schwarzen Haaren und grünen Augen. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Berger</t>
   </si>
   <si>
@@ -695,9 +662,6 @@
     <t>Lavendelweg 73, 80298 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen älteren Mannes mit graumelierten Haaren und Schnurrbart. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Klein</t>
   </si>
   <si>
@@ -710,9 +674,6 @@
     <t>Kamillenplatz 68, 80901 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit langen blauen Haaren. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Richter</t>
   </si>
   <si>
@@ -725,9 +686,6 @@
     <t>Jasminallee 99, 80772 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines schlanken Mannes mit kurzen braunen Haaren und einem kleinen Bart. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Cockrich</t>
   </si>
   <si>
@@ -737,27 +695,18 @@
     <t>Lümmelstraße 69</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines blonden Mannes mit lockigen blonden Haaren und blauen Augen, der so wirkt, als wäre er verrückt. Er ist Bartlos und seine Augen sind weit aufgerissen, er lacht hysterisch. Die Details seines Gesichts sind fein gezeichnet und gehen leicht ins Karikaturhafte.</t>
-  </si>
-  <si>
     <t>Leonie</t>
   </si>
   <si>
     <t>Mohnstraße 10, 80264 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit langen hellbraunen Haaren und Sommersprossen. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Matthias</t>
   </si>
   <si>
     <t>Rosenweg 46, 80136 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit kurzem rotblonden Haar und einer schmalen Brille. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Christina</t>
   </si>
   <si>
@@ -767,18 +716,12 @@
     <t>Sonnenblumenplatz 98, 80350 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit mittellangen dunkelblonden Haaren und grünen Augen. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Daniel</t>
   </si>
   <si>
     <t>Veilchenallee 61, 80464 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines großen Mannes mit dunkelbraunen Haaren und einer eckigen Brille. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Jana</t>
   </si>
   <si>
@@ -788,18 +731,12 @@
     <t>Tulpenstraße 84, 80805 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer jungen Frau mit kurzem schwarzem Haar und Piercings. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>David</t>
   </si>
   <si>
     <t>Primelallee 17, 80685 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit mittellangen grauen Haaren und Dreitagebart. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Ludwig</t>
   </si>
   <si>
@@ -809,27 +746,18 @@
     <t>Lilienweg 23, 80522 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit langen lockigen braunen Haaren und einem freundlichen Lächeln. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Philipp</t>
   </si>
   <si>
     <t>Nelkenplatz 75, 80290 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines älteren Mannes mit kurzen weißen Haaren und einer runden Brille. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Selina</t>
   </si>
   <si>
     <t>Kosmeenstraße 70, 80903 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit mittellangen purpurfarbenen Haaren. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Vogt</t>
   </si>
   <si>
@@ -839,18 +767,12 @@
     <t>Tulpenallee 101, 80774 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines großen Mannes mit kurzem schwarzem Haar und einem markanten Kinn. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Schmitt</t>
   </si>
   <si>
     <t>Orchideenstraße 12, 80265 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit langen welligen dunkelblonden Haaren. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Nico</t>
   </si>
   <si>
@@ -860,18 +782,12 @@
     <t>Rosenplatz 47, 80137 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines muskulösen Mannes mit kurzem hellblondem Haar und blauen Augen. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Katja</t>
   </si>
   <si>
     <t>Geranienweg 99, 80351 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit mittellangen schwarzen Haaren und einer schmalen Brille. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Werner</t>
   </si>
   <si>
@@ -881,39 +797,24 @@
     <t>Veilchenstraße 62, 80465 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines jungen Mannes mit lockigen braunen Haaren und Sommersprossen. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Narzissenplatz 85, 80806 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer jungen Frau mit kurzem pinken Haar und einem Nasenpiercing. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Brandt</t>
   </si>
   <si>
     <t>Lilienweg 18, 80686 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit mittellangen grauen Haaren und einer Tätowierung am Hals. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Marina</t>
   </si>
   <si>
     <t>Sonnenblumenallee 24, 80523 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit langen welligen braunen Haaren und einem freundlichen Lächeln. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Kosmeenplatz 76, 80291 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines großen Mannes mit kurzem schwarzem Haar und einem markanten Schnurrbart. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Weiss</t>
   </si>
   <si>
@@ -926,9 +827,6 @@
     <t>Tulpenstraße 71, 80904 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit langen lockigen roten Haaren. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Bergmann</t>
   </si>
   <si>
@@ -938,27 +836,18 @@
     <t>Magnolienallee 102, 80775 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines schlanken Mannes mit mittellangem dunkelbraunem Haar und einem kleinen Bart. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Sarah</t>
   </si>
   <si>
     <t>Dahlienstraße 13, 80266 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit kurzen blonden Haaren und blauen Augen. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Jonas</t>
   </si>
   <si>
     <t>Krokusplatz 48, 80138 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit Brille und kurzem dunkelbraunem Haar. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Lisa</t>
   </si>
   <si>
@@ -968,9 +857,6 @@
     <t>Rosenallee 100, 80352 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit langen rötlichen Haaren und Sommersprossen. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Florian</t>
   </si>
   <si>
@@ -980,9 +866,6 @@
     <t>Mohnstraße 63, 80466 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines jungen Mannes mit kurzem schwarzem Haar und grünen Augen. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Braun</t>
   </si>
   <si>
@@ -995,9 +878,6 @@
     <t>Veilchenplatz 86, 80807 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer jungen Frau mit mittellangen welligen braunen Haaren. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Fuchs</t>
   </si>
   <si>
@@ -1007,9 +887,6 @@
     <t>Geranienweg 19, 80687 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines großen Mannes mit kurzem grauen Haar und einer auffälligen Narbe auf der Wange. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Nina</t>
   </si>
   <si>
@@ -1019,60 +896,39 @@
     <t>Lilienstraße 25, 80524 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit langen schwarzen Haaren und Tattoos an den Armen. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Mechaniker</t>
   </si>
   <si>
     <t>Sonnenblumenplatz 77, 80292 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit Glatze und Dreitagebart. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Buchhändlerin</t>
   </si>
   <si>
     <t>Tulpenweg 72, 80905 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit langen lockigen blonden Haaren. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Peters</t>
   </si>
   <si>
     <t>Kosmeenallee 103, 80776 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines schlanken Mannes mit mittellangem dunkelblondem Haar und einem leichten Bart. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Katharina</t>
   </si>
   <si>
     <t>Azaleenstraße 14, 80267 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit langen hellbraunen Haaren und einem lächelnden Ausdruck. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Paul</t>
   </si>
   <si>
     <t>Lavendelplatz 49, 80139 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines schlanken Mannes mit kurzen schwarz-weißen Haaren und einer Hornbrille. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Kamillenallee 101, 80353 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit mittellangen rötlichen Haaren und einer schmalen Brille. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Marcus</t>
   </si>
   <si>
@@ -1082,18 +938,12 @@
     <t>Efeustraße 64, 80467 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines jungen Mannes mit mittellangem blonden Haar und einem leichten Bart. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Laura</t>
   </si>
   <si>
     <t>Hyazinthenplatz 87, 80808 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer jungen Frau mit kurzem schwarzen Haar und grünen Augen. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Adrian</t>
   </si>
   <si>
@@ -1103,24 +953,15 @@
     <t>Kirschbaumweg 20, 80688 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit einem markanten Bart und leicht grauen Haaren. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Anemonenstraße 26, 80525 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit mittellangen blonden Haaren und einer Perlenkette. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Bauingenieur</t>
   </si>
   <si>
     <t>Kaktusplatz 78, 80293 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines großen Mannes mit Glatze und dunklem Bart. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Krause</t>
   </si>
   <si>
@@ -1130,27 +971,18 @@
     <t>Asternweg 73, 80906 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit langen lockigen braunen Haaren. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Dominik</t>
   </si>
   <si>
     <t>Dahlienallee 104, 80777 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit kurzem dunkelbraunem Haar und Tattoos an den Armen. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Lange</t>
   </si>
   <si>
     <t>Margeritenstraße 15, 80268 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit kurzen dunkelblonden Haaren und einem Dreitagebart. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Carla</t>
   </si>
   <si>
@@ -2634,6 +2466,177 @@
   </si>
   <si>
     <t>#O000000OO00</t>
+  </si>
+  <si>
+    <t>169.png</t>
+  </si>
+  <si>
+    <t>37.png</t>
+  </si>
+  <si>
+    <t>38.png</t>
+  </si>
+  <si>
+    <t>39.png</t>
+  </si>
+  <si>
+    <t>40.png</t>
+  </si>
+  <si>
+    <t>41.png</t>
+  </si>
+  <si>
+    <t>42.png</t>
+  </si>
+  <si>
+    <t>43.png</t>
+  </si>
+  <si>
+    <t>44.png</t>
+  </si>
+  <si>
+    <t>45.png</t>
+  </si>
+  <si>
+    <t>46.png</t>
+  </si>
+  <si>
+    <t>47.png</t>
+  </si>
+  <si>
+    <t>48.png</t>
+  </si>
+  <si>
+    <t>49.png</t>
+  </si>
+  <si>
+    <t>50.png</t>
+  </si>
+  <si>
+    <t>51.png</t>
+  </si>
+  <si>
+    <t>52.png</t>
+  </si>
+  <si>
+    <t>53.png</t>
+  </si>
+  <si>
+    <t>54.png</t>
+  </si>
+  <si>
+    <t>55.png</t>
+  </si>
+  <si>
+    <t>56.png</t>
+  </si>
+  <si>
+    <t>57.png</t>
+  </si>
+  <si>
+    <t>58.png</t>
+  </si>
+  <si>
+    <t>59.png</t>
+  </si>
+  <si>
+    <t>60.png</t>
+  </si>
+  <si>
+    <t>61.png</t>
+  </si>
+  <si>
+    <t>62.png</t>
+  </si>
+  <si>
+    <t>63.png</t>
+  </si>
+  <si>
+    <t>64.png</t>
+  </si>
+  <si>
+    <t>65.png</t>
+  </si>
+  <si>
+    <t>66.png</t>
+  </si>
+  <si>
+    <t>67.png</t>
+  </si>
+  <si>
+    <t>68.png</t>
+  </si>
+  <si>
+    <t>69.png</t>
+  </si>
+  <si>
+    <t>70.png</t>
+  </si>
+  <si>
+    <t>71.png</t>
+  </si>
+  <si>
+    <t>72.png</t>
+  </si>
+  <si>
+    <t>73.png</t>
+  </si>
+  <si>
+    <t>74.png</t>
+  </si>
+  <si>
+    <t>75.png</t>
+  </si>
+  <si>
+    <t>76.png</t>
+  </si>
+  <si>
+    <t>77.png</t>
+  </si>
+  <si>
+    <t>78.png</t>
+  </si>
+  <si>
+    <t>79.png</t>
+  </si>
+  <si>
+    <t>80.png</t>
+  </si>
+  <si>
+    <t>81.png</t>
+  </si>
+  <si>
+    <t>82.png</t>
+  </si>
+  <si>
+    <t>83.png</t>
+  </si>
+  <si>
+    <t>84.png</t>
+  </si>
+  <si>
+    <t>85.png</t>
+  </si>
+  <si>
+    <t>86.png</t>
+  </si>
+  <si>
+    <t>87.png</t>
+  </si>
+  <si>
+    <t>88.png</t>
+  </si>
+  <si>
+    <t>89.png</t>
+  </si>
+  <si>
+    <t>90.png</t>
+  </si>
+  <si>
+    <t>91.png</t>
+  </si>
+  <si>
+    <t>92.png</t>
   </si>
 </sst>
 </file>
@@ -3000,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAD25C7-6EC7-4787-AFF7-FD054CF6041C}">
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+    <sheetView tabSelected="1" topLeftCell="F76" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3013,7 +3016,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>601</v>
+        <v>545</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -3042,7 +3045,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>650</v>
+        <v>594</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3069,12 +3072,12 @@
         <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>602</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>651</v>
+        <v>595</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3101,12 +3104,12 @@
         <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>603</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>652</v>
+        <v>596</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3133,12 +3136,12 @@
         <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>604</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3165,12 +3168,12 @@
         <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>605</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>654</v>
+        <v>598</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3197,12 +3200,12 @@
         <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>606</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>655</v>
+        <v>599</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -3229,12 +3232,12 @@
         <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>607</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>656</v>
+        <v>600</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -3261,12 +3264,12 @@
         <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>608</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>657</v>
+        <v>601</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3293,12 +3296,12 @@
         <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>609</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>658</v>
+        <v>602</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3325,12 +3328,12 @@
         <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>610</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>659</v>
+        <v>603</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3357,12 +3360,12 @@
         <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>611</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>660</v>
+        <v>604</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3389,12 +3392,12 @@
         <v>83</v>
       </c>
       <c r="J12" t="s">
-        <v>612</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>661</v>
+        <v>605</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3421,12 +3424,12 @@
         <v>86</v>
       </c>
       <c r="J13" t="s">
-        <v>613</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>662</v>
+        <v>606</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3453,12 +3456,12 @@
         <v>89</v>
       </c>
       <c r="J14" t="s">
-        <v>614</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>663</v>
+        <v>607</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3485,12 +3488,12 @@
         <v>93</v>
       </c>
       <c r="J15" t="s">
-        <v>615</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>664</v>
+        <v>608</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -3517,12 +3520,12 @@
         <v>95</v>
       </c>
       <c r="J16" t="s">
-        <v>616</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>665</v>
+        <v>609</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -3549,12 +3552,12 @@
         <v>98</v>
       </c>
       <c r="J17" t="s">
-        <v>617</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>666</v>
+        <v>610</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -3581,12 +3584,12 @@
         <v>101</v>
       </c>
       <c r="J18" t="s">
-        <v>618</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -3613,12 +3616,12 @@
         <v>105</v>
       </c>
       <c r="J19" t="s">
-        <v>619</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>668</v>
+        <v>612</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -3645,12 +3648,12 @@
         <v>109</v>
       </c>
       <c r="J20" t="s">
-        <v>620</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>669</v>
+        <v>613</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -3677,12 +3680,12 @@
         <v>113</v>
       </c>
       <c r="J21" t="s">
-        <v>621</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>670</v>
+        <v>614</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -3709,12 +3712,12 @@
         <v>117</v>
       </c>
       <c r="J22" t="s">
-        <v>622</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>671</v>
+        <v>615</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -3741,12 +3744,12 @@
         <v>121</v>
       </c>
       <c r="J23" t="s">
-        <v>623</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>672</v>
+        <v>616</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -3773,12 +3776,12 @@
         <v>125</v>
       </c>
       <c r="J24" t="s">
-        <v>624</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>673</v>
+        <v>617</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -3805,12 +3808,12 @@
         <v>129</v>
       </c>
       <c r="J25" t="s">
-        <v>625</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>674</v>
+        <v>618</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -3837,12 +3840,12 @@
         <v>133</v>
       </c>
       <c r="J26" t="s">
-        <v>626</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>675</v>
+        <v>619</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -3869,12 +3872,12 @@
         <v>136</v>
       </c>
       <c r="J27" t="s">
-        <v>627</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>676</v>
+        <v>620</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -3901,12 +3904,12 @@
         <v>140</v>
       </c>
       <c r="J28" t="s">
-        <v>628</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>677</v>
+        <v>621</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -3933,12 +3936,12 @@
         <v>143</v>
       </c>
       <c r="J29" t="s">
-        <v>629</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>678</v>
+        <v>622</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -3965,12 +3968,12 @@
         <v>147</v>
       </c>
       <c r="J30" t="s">
-        <v>630</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>679</v>
+        <v>623</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -3997,12 +4000,12 @@
         <v>150</v>
       </c>
       <c r="J31" t="s">
-        <v>631</v>
+        <v>575</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>680</v>
+        <v>624</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -4029,12 +4032,12 @@
         <v>153</v>
       </c>
       <c r="J32" t="s">
-        <v>632</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>681</v>
+        <v>625</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -4061,12 +4064,12 @@
         <v>157</v>
       </c>
       <c r="J33" t="s">
-        <v>633</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>682</v>
+        <v>626</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -4093,12 +4096,12 @@
         <v>160</v>
       </c>
       <c r="J34" t="s">
-        <v>634</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>683</v>
+        <v>627</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -4125,12 +4128,12 @@
         <v>163</v>
       </c>
       <c r="J35" t="s">
-        <v>635</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>684</v>
+        <v>628</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -4157,12 +4160,12 @@
         <v>165</v>
       </c>
       <c r="J36" t="s">
-        <v>636</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>685</v>
+        <v>629</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -4189,12 +4192,12 @@
         <v>168</v>
       </c>
       <c r="J37" t="s">
-        <v>637</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>686</v>
+        <v>630</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -4221,12 +4224,12 @@
         <v>171</v>
       </c>
       <c r="J38" t="s">
-        <v>172</v>
+        <v>811</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>687</v>
+        <v>631</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -4241,7 +4244,7 @@
         <v>23233</v>
       </c>
       <c r="F39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -4250,15 +4253,15 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J39" t="s">
-        <v>175</v>
+        <v>812</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>688</v>
+        <v>632</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -4267,13 +4270,13 @@
         <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E40" s="1">
         <v>31305</v>
       </c>
       <c r="F40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G40" t="s">
         <v>37</v>
@@ -4282,30 +4285,30 @@
         <v>63</v>
       </c>
       <c r="I40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J40" t="s">
-        <v>179</v>
+        <v>813</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>689</v>
+        <v>633</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E41" s="1">
         <v>37187</v>
       </c>
       <c r="F41" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G41" t="s">
         <v>31</v>
@@ -4314,24 +4317,24 @@
         <v>43</v>
       </c>
       <c r="I41" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J41" t="s">
-        <v>184</v>
+        <v>814</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>690</v>
+        <v>634</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E42" s="1">
         <v>29164</v>
@@ -4346,15 +4349,15 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J42" t="s">
-        <v>188</v>
+        <v>815</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>691</v>
+        <v>635</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -4363,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E43" s="1">
         <v>31760</v>
@@ -4378,30 +4381,30 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J43" t="s">
-        <v>191</v>
+        <v>816</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>692</v>
+        <v>636</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E44" s="1">
         <v>36547</v>
       </c>
       <c r="F44" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
@@ -4410,30 +4413,30 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J44" t="s">
-        <v>196</v>
+        <v>817</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>693</v>
+        <v>637</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D45" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E45" s="1">
         <v>24879</v>
       </c>
       <c r="F45" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G45" t="s">
         <v>23</v>
@@ -4442,15 +4445,15 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J45" t="s">
-        <v>201</v>
+        <v>818</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>694</v>
+        <v>638</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -4465,7 +4468,7 @@
         <v>35493</v>
       </c>
       <c r="F46" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G46" t="s">
         <v>18</v>
@@ -4474,30 +4477,30 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J46" t="s">
-        <v>204</v>
+        <v>819</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>695</v>
+        <v>639</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E47" s="1">
         <v>26406</v>
       </c>
       <c r="F47" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G47" t="s">
         <v>29</v>
@@ -4506,30 +4509,30 @@
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J47" t="s">
-        <v>209</v>
+        <v>820</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>696</v>
+        <v>640</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D48" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E48" s="1">
         <v>30099</v>
       </c>
       <c r="F48" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G48" t="s">
         <v>21</v>
@@ -4538,30 +4541,30 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="J48" t="s">
-        <v>214</v>
+        <v>821</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>697</v>
+        <v>641</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E49" s="1">
         <v>21710</v>
       </c>
       <c r="F49" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
@@ -4570,30 +4573,30 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="J49" t="s">
-        <v>219</v>
+        <v>822</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>698</v>
+        <v>642</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D50" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E50" s="1">
         <v>34166</v>
       </c>
       <c r="F50" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -4602,30 +4605,30 @@
         <v>63</v>
       </c>
       <c r="I50" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="J50" t="s">
-        <v>224</v>
+        <v>823</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>699</v>
+        <v>643</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E51" s="1">
         <v>32014</v>
       </c>
       <c r="F51" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G51" t="s">
         <v>37</v>
@@ -4634,21 +4637,21 @@
         <v>43</v>
       </c>
       <c r="I51" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="J51" t="s">
-        <v>229</v>
+        <v>824</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>700</v>
+        <v>644</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D52" t="s">
         <v>44</v>
@@ -4657,7 +4660,7 @@
         <v>32588</v>
       </c>
       <c r="F52" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -4666,15 +4669,15 @@
         <v>43</v>
       </c>
       <c r="I52" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="J52" t="s">
-        <v>233</v>
+        <v>825</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>701</v>
+        <v>645</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -4683,7 +4686,7 @@
         <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E53" s="1">
         <v>35261</v>
@@ -4698,15 +4701,15 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="J53" t="s">
-        <v>236</v>
+        <v>826</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>702</v>
+        <v>646</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -4715,7 +4718,7 @@
         <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E54" s="1">
         <v>29457</v>
@@ -4730,15 +4733,15 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="J54" t="s">
-        <v>239</v>
+        <v>827</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>703</v>
+        <v>647</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -4747,13 +4750,13 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E55" s="1">
         <v>27638</v>
       </c>
       <c r="F55" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="G55" t="s">
         <v>23</v>
@@ -4762,15 +4765,15 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="J55" t="s">
-        <v>243</v>
+        <v>828</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>704</v>
+        <v>648</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -4779,7 +4782,7 @@
         <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E56" s="1">
         <v>31331</v>
@@ -4794,15 +4797,15 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="J56" t="s">
-        <v>246</v>
+        <v>829</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>705</v>
+        <v>649</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -4811,13 +4814,13 @@
         <v>118</v>
       </c>
       <c r="D57" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="E57" s="1">
         <v>37565</v>
       </c>
       <c r="F57" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G57" t="s">
         <v>13</v>
@@ -4826,15 +4829,15 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="J57" t="s">
-        <v>250</v>
+        <v>830</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>706</v>
+        <v>650</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -4843,7 +4846,7 @@
         <v>154</v>
       </c>
       <c r="D58" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="E58" s="1">
         <v>25921</v>
@@ -4858,30 +4861,30 @@
         <v>4</v>
       </c>
       <c r="I58" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="J58" t="s">
-        <v>253</v>
+        <v>831</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>707</v>
+        <v>651</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="D59" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E59" s="1">
         <v>32903</v>
       </c>
       <c r="F59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G59" t="s">
         <v>29</v>
@@ -4890,15 +4893,15 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="J59" t="s">
-        <v>257</v>
+        <v>832</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>708</v>
+        <v>652</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -4907,7 +4910,7 @@
         <v>114</v>
       </c>
       <c r="D60" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="E60" s="1">
         <v>20128</v>
@@ -4922,15 +4925,15 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="J60" t="s">
-        <v>260</v>
+        <v>833</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>709</v>
+        <v>653</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -4939,7 +4942,7 @@
         <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="E61" s="1">
         <v>34410</v>
@@ -4954,24 +4957,24 @@
         <v>63</v>
       </c>
       <c r="I61" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="J61" t="s">
-        <v>263</v>
+        <v>834</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>710</v>
+        <v>654</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="D62" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="E62" s="1">
         <v>32260</v>
@@ -4986,21 +4989,21 @@
         <v>43</v>
       </c>
       <c r="I62" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="J62" t="s">
-        <v>267</v>
+        <v>835</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>711</v>
+        <v>655</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D63" t="s">
         <v>47</v>
@@ -5018,30 +5021,30 @@
         <v>5</v>
       </c>
       <c r="I63" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="J63" t="s">
-        <v>270</v>
+        <v>836</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D64" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="E64" s="1">
         <v>33404</v>
       </c>
       <c r="F64" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="G64" t="s">
         <v>35</v>
@@ -5050,30 +5053,30 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="J64" t="s">
-        <v>274</v>
+        <v>837</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>713</v>
+        <v>657</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D65" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="E65" s="1">
         <v>29059</v>
       </c>
       <c r="F65" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G65" t="s">
         <v>21</v>
@@ -5082,24 +5085,24 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="J65" t="s">
-        <v>277</v>
+        <v>838</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>714</v>
+        <v>658</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="D66" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="E66" s="1">
         <v>37470</v>
@@ -5114,21 +5117,21 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="J66" t="s">
-        <v>281</v>
+        <v>839</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>715</v>
+        <v>659</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -5137,7 +5140,7 @@
         <v>34588</v>
       </c>
       <c r="F67" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G67" t="s">
         <v>29</v>
@@ -5146,21 +5149,21 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="J67" t="s">
-        <v>283</v>
+        <v>840</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>716</v>
+        <v>660</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="D68" t="s">
         <v>127</v>
@@ -5178,24 +5181,24 @@
         <v>4</v>
       </c>
       <c r="I68" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="J68" t="s">
-        <v>286</v>
+        <v>841</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>717</v>
+        <v>661</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D69" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="E69" s="1">
         <v>29555</v>
@@ -5210,15 +5213,15 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="J69" t="s">
-        <v>289</v>
+        <v>842</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>718</v>
+        <v>662</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -5227,7 +5230,7 @@
         <v>161</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E70" s="1">
         <v>28468</v>
@@ -5242,30 +5245,30 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="J70" t="s">
-        <v>291</v>
+        <v>843</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>719</v>
+        <v>663</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="D71" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="E71" s="1">
         <v>36544</v>
       </c>
       <c r="F71" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="G71" t="s">
         <v>18</v>
@@ -5274,24 +5277,24 @@
         <v>63</v>
       </c>
       <c r="I71" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="J71" t="s">
-        <v>296</v>
+        <v>844</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>720</v>
+        <v>664</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D72" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="E72" s="1">
         <v>31471</v>
@@ -5306,24 +5309,24 @@
         <v>43</v>
       </c>
       <c r="I72" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="J72" t="s">
-        <v>300</v>
+        <v>845</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>721</v>
+        <v>665</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="E73" s="1">
         <v>30017</v>
@@ -5338,15 +5341,15 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="J73" t="s">
-        <v>303</v>
+        <v>846</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>722</v>
+        <v>666</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -5355,7 +5358,7 @@
         <v>53</v>
       </c>
       <c r="D74" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="E74" s="1">
         <v>34805</v>
@@ -5370,30 +5373,30 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="J74" t="s">
-        <v>306</v>
+        <v>847</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>723</v>
+        <v>667</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D75" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="E75" s="1">
         <v>28636</v>
       </c>
       <c r="F75" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="G75" t="s">
         <v>23</v>
@@ -5402,15 +5405,15 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="J75" t="s">
-        <v>310</v>
+        <v>848</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>724</v>
+        <v>668</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -5419,13 +5422,13 @@
         <v>134</v>
       </c>
       <c r="D76" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="E76" s="1">
         <v>37046</v>
       </c>
       <c r="F76" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="G76" t="s">
         <v>18</v>
@@ -5434,30 +5437,30 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="J76" t="s">
-        <v>314</v>
+        <v>849</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>725</v>
+        <v>669</v>
       </c>
       <c r="B77">
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="D77" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="E77" s="1">
         <v>34164</v>
       </c>
       <c r="F77" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="G77" t="s">
         <v>21</v>
@@ -5466,21 +5469,21 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="J77" t="s">
-        <v>319</v>
+        <v>850</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>726</v>
+        <v>670</v>
       </c>
       <c r="B78">
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="D78" t="s">
         <v>135</v>
@@ -5489,7 +5492,7 @@
         <v>25438</v>
       </c>
       <c r="F78" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="G78" t="s">
         <v>40</v>
@@ -5498,15 +5501,15 @@
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="J78" t="s">
-        <v>323</v>
+        <v>851</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>727</v>
+        <v>671</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -5515,13 +5518,13 @@
         <v>65</v>
       </c>
       <c r="D79" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="E79" s="1">
         <v>29831</v>
       </c>
       <c r="F79" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -5530,15 +5533,15 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="J79" t="s">
-        <v>327</v>
+        <v>852</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>728</v>
+        <v>672</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -5553,7 +5556,7 @@
         <v>28044</v>
       </c>
       <c r="F80" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -5562,15 +5565,15 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="J80" t="s">
-        <v>330</v>
+        <v>853</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>729</v>
+        <v>673</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -5585,7 +5588,7 @@
         <v>36120</v>
       </c>
       <c r="F81" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="G81" t="s">
         <v>29</v>
@@ -5594,21 +5597,21 @@
         <v>63</v>
       </c>
       <c r="I81" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="J81" t="s">
-        <v>333</v>
+        <v>854</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>730</v>
+        <v>674</v>
       </c>
       <c r="B82">
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="D82" t="s">
         <v>44</v>
@@ -5617,7 +5620,7 @@
         <v>32843</v>
       </c>
       <c r="F82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G82" t="s">
         <v>13</v>
@@ -5626,15 +5629,15 @@
         <v>43</v>
       </c>
       <c r="I82" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="J82" t="s">
-        <v>336</v>
+        <v>855</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>731</v>
+        <v>675</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -5643,7 +5646,7 @@
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="E83" s="1">
         <v>32883</v>
@@ -5658,15 +5661,15 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="J83" t="s">
-        <v>339</v>
+        <v>856</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>732</v>
+        <v>676</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -5675,7 +5678,7 @@
         <v>73</v>
       </c>
       <c r="D84" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="E84" s="1">
         <v>32192</v>
@@ -5690,15 +5693,15 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="J84" t="s">
-        <v>342</v>
+        <v>857</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>733</v>
+        <v>677</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -5722,15 +5725,15 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="J85" t="s">
-        <v>344</v>
+        <v>858</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>734</v>
+        <v>678</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -5739,13 +5742,13 @@
         <v>49</v>
       </c>
       <c r="D86" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="E86" s="1">
         <v>37717</v>
       </c>
       <c r="F86" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="G86" t="s">
         <v>21</v>
@@ -5754,15 +5757,15 @@
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="J86" t="s">
-        <v>348</v>
+        <v>859</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>735</v>
+        <v>679</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -5771,7 +5774,7 @@
         <v>53</v>
       </c>
       <c r="D87" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="E87" s="1">
         <v>35200</v>
@@ -5786,15 +5789,15 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="J87" t="s">
-        <v>351</v>
+        <v>860</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>736</v>
+        <v>680</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -5803,13 +5806,13 @@
         <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="E88" s="1">
         <v>25744</v>
       </c>
       <c r="F88" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="G88" t="s">
         <v>40</v>
@@ -5818,15 +5821,15 @@
         <v>4</v>
       </c>
       <c r="I88" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="J88" t="s">
-        <v>355</v>
+        <v>861</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>737</v>
+        <v>681</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -5850,15 +5853,15 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="J89" t="s">
-        <v>357</v>
+        <v>862</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>738</v>
+        <v>682</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -5867,13 +5870,13 @@
         <v>118</v>
       </c>
       <c r="D90" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E90" s="1">
         <v>27618</v>
       </c>
       <c r="F90" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="G90" t="s">
         <v>31</v>
@@ -5882,24 +5885,24 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="J90" t="s">
-        <v>360</v>
+        <v>863</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>739</v>
+        <v>683</v>
       </c>
       <c r="B91">
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="D91" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="E91" s="1">
         <v>36425</v>
@@ -5914,15 +5917,15 @@
         <v>63</v>
       </c>
       <c r="I91" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="J91" t="s">
-        <v>364</v>
+        <v>864</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>740</v>
+        <v>684</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -5931,7 +5934,7 @@
         <v>77</v>
       </c>
       <c r="D92" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="E92" s="1">
         <v>33541</v>
@@ -5946,21 +5949,21 @@
         <v>43</v>
       </c>
       <c r="I92" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="J92" t="s">
-        <v>367</v>
+        <v>865</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>741</v>
+        <v>685</v>
       </c>
       <c r="B93">
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="D93" t="s">
         <v>155</v>
@@ -5978,30 +5981,30 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="J93" t="s">
-        <v>370</v>
+        <v>866</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>742</v>
+        <v>686</v>
       </c>
       <c r="B94">
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D94" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="E94" s="1">
         <v>35472</v>
       </c>
       <c r="F94" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="G94" t="s">
         <v>31</v>
@@ -6010,15 +6013,15 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="J94" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>743</v>
+        <v>687</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -6027,13 +6030,13 @@
         <v>42</v>
       </c>
       <c r="D95" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="E95" s="1">
         <v>28207</v>
       </c>
       <c r="F95" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="G95" t="s">
         <v>21</v>
@@ -6042,24 +6045,24 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="J95" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>744</v>
+        <v>688</v>
       </c>
       <c r="B96">
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D96" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="E96" s="1">
         <v>37348</v>
@@ -6074,30 +6077,30 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="J96" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>745</v>
+        <v>689</v>
       </c>
       <c r="B97">
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="D97" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E97" s="1">
         <v>34101</v>
       </c>
       <c r="F97" t="s">
-        <v>381</v>
+        <v>325</v>
       </c>
       <c r="G97" t="s">
         <v>23</v>
@@ -6106,15 +6109,15 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="J97" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>746</v>
+        <v>690</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -6123,13 +6126,13 @@
         <v>154</v>
       </c>
       <c r="D98" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="E98" s="1">
         <v>32679</v>
       </c>
       <c r="F98" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="G98" t="s">
         <v>13</v>
@@ -6138,15 +6141,15 @@
         <v>4</v>
       </c>
       <c r="I98" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="J98" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>747</v>
+        <v>691</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -6155,7 +6158,7 @@
         <v>161</v>
       </c>
       <c r="D99" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E99" s="1">
         <v>26848</v>
@@ -6170,30 +6173,30 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="J99" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>748</v>
+        <v>692</v>
       </c>
       <c r="B100">
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="D100" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="E100" s="1">
         <v>36021</v>
       </c>
       <c r="F100" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="G100" t="s">
         <v>35</v>
@@ -6202,24 +6205,24 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="J100" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>749</v>
+        <v>693</v>
       </c>
       <c r="B101">
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D101" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="E101" s="1">
         <v>31683</v>
@@ -6234,24 +6237,24 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="J101" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>750</v>
+        <v>694</v>
       </c>
       <c r="B102">
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D102" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="E102" s="1">
         <v>37170</v>
@@ -6266,30 +6269,30 @@
         <v>43</v>
       </c>
       <c r="I102" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="J102" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>751</v>
+        <v>695</v>
       </c>
       <c r="B103">
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="D103" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E103" s="1">
         <v>30274</v>
       </c>
       <c r="F103" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="G103" t="s">
         <v>31</v>
@@ -6298,15 +6301,15 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="J103" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>752</v>
+        <v>696</v>
       </c>
       <c r="B104">
         <v>103</v>
@@ -6330,30 +6333,30 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="J104" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>753</v>
+        <v>697</v>
       </c>
       <c r="B105">
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D105" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="E105" s="1">
         <v>28865</v>
       </c>
       <c r="F105" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="G105" t="s">
         <v>40</v>
@@ -6362,21 +6365,21 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="J105" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>754</v>
+        <v>698</v>
       </c>
       <c r="B106">
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="D106" t="s">
         <v>70</v>
@@ -6385,7 +6388,7 @@
         <v>36578</v>
       </c>
       <c r="F106" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="G106" t="s">
         <v>23</v>
@@ -6394,24 +6397,24 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="J106" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>755</v>
+        <v>699</v>
       </c>
       <c r="B107">
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="D107" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="E107" s="1">
         <v>34398</v>
@@ -6426,24 +6429,24 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="J107" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>756</v>
+        <v>700</v>
       </c>
       <c r="B108">
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D108" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E108" s="1">
         <v>32248</v>
@@ -6458,15 +6461,15 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="J108" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>757</v>
+        <v>701</v>
       </c>
       <c r="B109">
         <v>108</v>
@@ -6475,13 +6478,13 @@
         <v>126</v>
       </c>
       <c r="D109" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="E109" s="1">
         <v>27173</v>
       </c>
       <c r="F109" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="G109" t="s">
         <v>35</v>
@@ -6490,21 +6493,21 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="J109" t="s">
-        <v>423</v>
+        <v>367</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>758</v>
+        <v>702</v>
       </c>
       <c r="B110">
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
@@ -6513,7 +6516,7 @@
         <v>37415</v>
       </c>
       <c r="F110" t="s">
-        <v>424</v>
+        <v>368</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -6522,30 +6525,30 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="J110" t="s">
-        <v>426</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>759</v>
+        <v>703</v>
       </c>
       <c r="B111">
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="D111" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="E111" s="1">
         <v>33074</v>
       </c>
       <c r="F111" t="s">
-        <v>428</v>
+        <v>372</v>
       </c>
       <c r="G111" t="s">
         <v>18</v>
@@ -6554,24 +6557,24 @@
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="J111" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>760</v>
+        <v>704</v>
       </c>
       <c r="B112">
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="D112" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="E112" s="1">
         <v>31991</v>
@@ -6586,15 +6589,15 @@
         <v>43</v>
       </c>
       <c r="I112" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="J112" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>761</v>
+        <v>705</v>
       </c>
       <c r="B113">
         <v>112</v>
@@ -6603,13 +6606,13 @@
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="E113" s="1">
         <v>29467</v>
       </c>
       <c r="F113" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
       <c r="G113" t="s">
         <v>13</v>
@@ -6618,15 +6621,15 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="J113" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>762</v>
+        <v>706</v>
       </c>
       <c r="B114">
         <v>113</v>
@@ -6635,7 +6638,7 @@
         <v>73</v>
       </c>
       <c r="D114" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="E114" s="1">
         <v>36450</v>
@@ -6650,15 +6653,15 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>439</v>
+        <v>383</v>
       </c>
       <c r="J114" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>763</v>
+        <v>707</v>
       </c>
       <c r="B115">
         <v>114</v>
@@ -6667,13 +6670,13 @@
         <v>69</v>
       </c>
       <c r="D115" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="E115" s="1">
         <v>31007</v>
       </c>
       <c r="F115" t="s">
-        <v>441</v>
+        <v>385</v>
       </c>
       <c r="G115" t="s">
         <v>40</v>
@@ -6682,15 +6685,15 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>442</v>
+        <v>386</v>
       </c>
       <c r="J115" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>764</v>
+        <v>708</v>
       </c>
       <c r="B116">
         <v>115</v>
@@ -6699,13 +6702,13 @@
         <v>49</v>
       </c>
       <c r="D116" t="s">
-        <v>444</v>
+        <v>388</v>
       </c>
       <c r="E116" s="1">
         <v>37595</v>
       </c>
       <c r="F116" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="G116" t="s">
         <v>23</v>
@@ -6714,30 +6717,30 @@
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>445</v>
+        <v>389</v>
       </c>
       <c r="J116" t="s">
-        <v>446</v>
+        <v>390</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>765</v>
+        <v>709</v>
       </c>
       <c r="B117">
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
       <c r="D117" t="s">
-        <v>448</v>
+        <v>392</v>
       </c>
       <c r="E117" s="1">
         <v>33615</v>
       </c>
       <c r="F117" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="G117" t="s">
         <v>37</v>
@@ -6746,24 +6749,24 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="J117" t="s">
-        <v>450</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>766</v>
+        <v>710</v>
       </c>
       <c r="B118">
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="D118" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="E118" s="1">
         <v>34758</v>
@@ -6778,15 +6781,15 @@
         <v>4</v>
       </c>
       <c r="I118" t="s">
-        <v>451</v>
+        <v>395</v>
       </c>
       <c r="J118" t="s">
-        <v>452</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>767</v>
+        <v>711</v>
       </c>
       <c r="B119">
         <v>118</v>
@@ -6795,13 +6798,13 @@
         <v>77</v>
       </c>
       <c r="D119" t="s">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="E119" s="1">
         <v>31846</v>
       </c>
       <c r="F119" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="G119" t="s">
         <v>29</v>
@@ -6810,30 +6813,30 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>455</v>
+        <v>399</v>
       </c>
       <c r="J119" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>768</v>
+        <v>712</v>
       </c>
       <c r="B120">
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="D120" t="s">
-        <v>457</v>
+        <v>401</v>
       </c>
       <c r="E120" s="1">
         <v>32981</v>
       </c>
       <c r="F120" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="G120" t="s">
         <v>35</v>
@@ -6842,30 +6845,30 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="J120" t="s">
-        <v>460</v>
+        <v>404</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>769</v>
+        <v>713</v>
       </c>
       <c r="B121">
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>461</v>
+        <v>405</v>
       </c>
       <c r="D121" t="s">
-        <v>462</v>
+        <v>406</v>
       </c>
       <c r="E121" s="1">
         <v>30097</v>
       </c>
       <c r="F121" t="s">
-        <v>463</v>
+        <v>407</v>
       </c>
       <c r="G121" t="s">
         <v>18</v>
@@ -6874,15 +6877,15 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="J121" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>770</v>
+        <v>714</v>
       </c>
       <c r="B122">
         <v>121</v>
@@ -6891,7 +6894,7 @@
         <v>57</v>
       </c>
       <c r="D122" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E122" s="1">
         <v>29011</v>
@@ -6906,24 +6909,24 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="J122" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>771</v>
+        <v>715</v>
       </c>
       <c r="B123">
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D123" t="s">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="E123" s="1">
         <v>37813</v>
@@ -6938,15 +6941,15 @@
         <v>43</v>
       </c>
       <c r="I123" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="J123" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>772</v>
+        <v>716</v>
       </c>
       <c r="B124">
         <v>123</v>
@@ -6955,7 +6958,7 @@
         <v>53</v>
       </c>
       <c r="D124" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="E124" s="1">
         <v>34565</v>
@@ -6970,15 +6973,15 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="J124" t="s">
-        <v>473</v>
+        <v>417</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>773</v>
+        <v>717</v>
       </c>
       <c r="B125">
         <v>124</v>
@@ -7002,21 +7005,21 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>474</v>
+        <v>418</v>
       </c>
       <c r="J125" t="s">
-        <v>475</v>
+        <v>419</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>774</v>
+        <v>718</v>
       </c>
       <c r="B126">
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>476</v>
+        <v>420</v>
       </c>
       <c r="D126" t="s">
         <v>54</v>
@@ -7034,24 +7037,24 @@
         <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
       <c r="J126" t="s">
-        <v>478</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>775</v>
+        <v>719</v>
       </c>
       <c r="B127">
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>479</v>
+        <v>423</v>
       </c>
       <c r="D127" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E127" s="1">
         <v>33559</v>
@@ -7066,21 +7069,21 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>480</v>
+        <v>424</v>
       </c>
       <c r="J127" t="s">
-        <v>481</v>
+        <v>425</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>776</v>
+        <v>720</v>
       </c>
       <c r="B128">
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>482</v>
+        <v>426</v>
       </c>
       <c r="D128" t="s">
         <v>123</v>
@@ -7089,7 +7092,7 @@
         <v>36886</v>
       </c>
       <c r="F128" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G128" t="s">
         <v>13</v>
@@ -7098,24 +7101,24 @@
         <v>4</v>
       </c>
       <c r="I128" t="s">
-        <v>483</v>
+        <v>427</v>
       </c>
       <c r="J128" t="s">
-        <v>484</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>777</v>
+        <v>721</v>
       </c>
       <c r="B129">
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="D129" t="s">
-        <v>485</v>
+        <v>429</v>
       </c>
       <c r="E129" s="1">
         <v>30319</v>
@@ -7130,24 +7133,24 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="J129" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="B130">
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D130" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="E130" s="1">
         <v>32550</v>
@@ -7162,15 +7165,15 @@
         <v>63</v>
       </c>
       <c r="I130" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="J130" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>779</v>
+        <v>723</v>
       </c>
       <c r="B131">
         <v>130</v>
@@ -7179,7 +7182,7 @@
         <v>42</v>
       </c>
       <c r="D131" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="E131" s="1">
         <v>28206</v>
@@ -7194,24 +7197,24 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>492</v>
+        <v>436</v>
       </c>
       <c r="J131" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>780</v>
+        <v>724</v>
       </c>
       <c r="B132">
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="D132" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="E132" s="1">
         <v>32612</v>
@@ -7226,30 +7229,30 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="J132" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>781</v>
+        <v>725</v>
       </c>
       <c r="B133">
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="D133" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="E133" s="1">
         <v>37033</v>
       </c>
       <c r="F133" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="G133" t="s">
         <v>35</v>
@@ -7258,15 +7261,15 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>498</v>
+        <v>442</v>
       </c>
       <c r="J133" t="s">
-        <v>499</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>782</v>
+        <v>726</v>
       </c>
       <c r="B134">
         <v>133</v>
@@ -7275,13 +7278,13 @@
         <v>65</v>
       </c>
       <c r="D134" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="E134" s="1">
         <v>27548</v>
       </c>
       <c r="F134" t="s">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="G134" t="s">
         <v>31</v>
@@ -7290,30 +7293,30 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="J134" t="s">
-        <v>502</v>
+        <v>446</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>783</v>
+        <v>727</v>
       </c>
       <c r="B135">
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="D135" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="E135" s="1">
         <v>34168</v>
       </c>
       <c r="F135" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="G135" t="s">
         <v>29</v>
@@ -7322,21 +7325,21 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>503</v>
+        <v>447</v>
       </c>
       <c r="J135" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>784</v>
+        <v>728</v>
       </c>
       <c r="B136">
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>505</v>
+        <v>449</v>
       </c>
       <c r="D136" t="s">
         <v>44</v>
@@ -7345,7 +7348,7 @@
         <v>36399</v>
       </c>
       <c r="F136" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="G136" t="s">
         <v>23</v>
@@ -7354,30 +7357,30 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>506</v>
+        <v>450</v>
       </c>
       <c r="J136" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>785</v>
+        <v>729</v>
       </c>
       <c r="B137">
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D137" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="E137" s="1">
         <v>30198</v>
       </c>
       <c r="F137" t="s">
-        <v>508</v>
+        <v>452</v>
       </c>
       <c r="G137" t="s">
         <v>21</v>
@@ -7386,21 +7389,21 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>509</v>
+        <v>453</v>
       </c>
       <c r="J137" t="s">
-        <v>510</v>
+        <v>454</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>786</v>
+        <v>730</v>
       </c>
       <c r="B138">
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D138" t="s">
         <v>66</v>
@@ -7409,7 +7412,7 @@
         <v>28413</v>
       </c>
       <c r="F138" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
       <c r="G138" t="s">
         <v>13</v>
@@ -7418,24 +7421,24 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
       <c r="J138" t="s">
-        <v>513</v>
+        <v>457</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>787</v>
+        <v>731</v>
       </c>
       <c r="B139">
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="D139" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E139" s="1">
         <v>36122</v>
@@ -7450,21 +7453,21 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="J139" t="s">
-        <v>516</v>
+        <v>460</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>788</v>
+        <v>732</v>
       </c>
       <c r="B140">
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="D140" t="s">
         <v>149</v>
@@ -7482,30 +7485,30 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>517</v>
+        <v>461</v>
       </c>
       <c r="J140" t="s">
-        <v>518</v>
+        <v>462</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>789</v>
+        <v>733</v>
       </c>
       <c r="B141">
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="D141" t="s">
-        <v>519</v>
+        <v>463</v>
       </c>
       <c r="E141" s="1">
         <v>30691</v>
       </c>
       <c r="F141" t="s">
-        <v>520</v>
+        <v>464</v>
       </c>
       <c r="G141" t="s">
         <v>37</v>
@@ -7514,24 +7517,24 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="J141" t="s">
-        <v>522</v>
+        <v>466</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>790</v>
+        <v>734</v>
       </c>
       <c r="B142">
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>523</v>
+        <v>467</v>
       </c>
       <c r="D142" t="s">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="E142" s="1">
         <v>36575</v>
@@ -7546,24 +7549,24 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>525</v>
+        <v>469</v>
       </c>
       <c r="J142" t="s">
-        <v>526</v>
+        <v>470</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>791</v>
+        <v>735</v>
       </c>
       <c r="B143">
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D143" t="s">
-        <v>527</v>
+        <v>471</v>
       </c>
       <c r="E143" s="1">
         <v>33688</v>
@@ -7578,24 +7581,24 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="J143" t="s">
-        <v>529</v>
+        <v>473</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>792</v>
+        <v>736</v>
       </c>
       <c r="B144">
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="D144" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E144" s="1">
         <v>32239</v>
@@ -7610,15 +7613,15 @@
         <v>3</v>
       </c>
       <c r="I144" t="s">
-        <v>531</v>
+        <v>475</v>
       </c>
       <c r="J144" t="s">
-        <v>532</v>
+        <v>476</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>793</v>
+        <v>737</v>
       </c>
       <c r="B145">
         <v>144</v>
@@ -7627,13 +7630,13 @@
         <v>161</v>
       </c>
       <c r="D145" t="s">
-        <v>533</v>
+        <v>477</v>
       </c>
       <c r="E145" s="1">
         <v>35198</v>
       </c>
       <c r="F145" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="G145" t="s">
         <v>18</v>
@@ -7642,15 +7645,15 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>534</v>
+        <v>478</v>
       </c>
       <c r="J145" t="s">
-        <v>535</v>
+        <v>479</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>794</v>
+        <v>738</v>
       </c>
       <c r="B146">
         <v>145</v>
@@ -7659,7 +7662,7 @@
         <v>8</v>
       </c>
       <c r="D146" t="s">
-        <v>536</v>
+        <v>480</v>
       </c>
       <c r="E146" s="1">
         <v>29027</v>
@@ -7674,15 +7677,15 @@
         <v>63</v>
       </c>
       <c r="I146" t="s">
-        <v>537</v>
+        <v>481</v>
       </c>
       <c r="J146" t="s">
-        <v>538</v>
+        <v>482</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>795</v>
+        <v>739</v>
       </c>
       <c r="B147">
         <v>146</v>
@@ -7691,7 +7694,7 @@
         <v>73</v>
       </c>
       <c r="D147" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="E147" s="1">
         <v>37830</v>
@@ -7706,21 +7709,21 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>539</v>
+        <v>483</v>
       </c>
       <c r="J147" t="s">
-        <v>540</v>
+        <v>484</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>796</v>
+        <v>740</v>
       </c>
       <c r="B148">
         <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="D148" t="s">
         <v>155</v>
@@ -7729,7 +7732,7 @@
         <v>33459</v>
       </c>
       <c r="F148" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="G148" t="s">
         <v>35</v>
@@ -7738,30 +7741,30 @@
         <v>43</v>
       </c>
       <c r="I148" t="s">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="J148" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>797</v>
+        <v>741</v>
       </c>
       <c r="B149">
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>544</v>
+        <v>488</v>
       </c>
       <c r="D149" t="s">
-        <v>545</v>
+        <v>489</v>
       </c>
       <c r="E149" s="1">
         <v>34794</v>
       </c>
       <c r="F149" t="s">
-        <v>546</v>
+        <v>490</v>
       </c>
       <c r="G149" t="s">
         <v>11</v>
@@ -7770,30 +7773,30 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>547</v>
+        <v>491</v>
       </c>
       <c r="J149" t="s">
-        <v>548</v>
+        <v>492</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>798</v>
+        <v>742</v>
       </c>
       <c r="B150">
         <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>549</v>
+        <v>493</v>
       </c>
       <c r="D150" t="s">
-        <v>550</v>
+        <v>494</v>
       </c>
       <c r="E150" s="1">
         <v>32372</v>
       </c>
       <c r="F150" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G150" t="s">
         <v>37</v>
@@ -7802,15 +7805,15 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>551</v>
+        <v>495</v>
       </c>
       <c r="J150" t="s">
-        <v>552</v>
+        <v>496</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>799</v>
+        <v>743</v>
       </c>
       <c r="B151">
         <v>150</v>
@@ -7825,7 +7828,7 @@
         <v>34041</v>
       </c>
       <c r="F151" t="s">
-        <v>553</v>
+        <v>497</v>
       </c>
       <c r="G151" t="s">
         <v>26</v>
@@ -7834,21 +7837,21 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>554</v>
+        <v>498</v>
       </c>
       <c r="J151" t="s">
-        <v>555</v>
+        <v>499</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>800</v>
+        <v>744</v>
       </c>
       <c r="B152">
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="D152" t="s">
         <v>84</v>
@@ -7866,24 +7869,24 @@
         <v>63</v>
       </c>
       <c r="I152" t="s">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="J152" t="s">
-        <v>558</v>
+        <v>502</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>801</v>
+        <v>745</v>
       </c>
       <c r="B153">
         <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>559</v>
+        <v>503</v>
       </c>
       <c r="D153" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="E153" s="1">
         <v>33614</v>
@@ -7898,30 +7901,30 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="J153" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>802</v>
+        <v>746</v>
       </c>
       <c r="B154">
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>563</v>
+        <v>507</v>
       </c>
       <c r="D154" t="s">
-        <v>564</v>
+        <v>508</v>
       </c>
       <c r="E154" s="1">
         <v>34466</v>
       </c>
       <c r="F154" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="G154" t="s">
         <v>35</v>
@@ -7930,21 +7933,21 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>566</v>
+        <v>510</v>
       </c>
       <c r="J154" t="s">
-        <v>567</v>
+        <v>511</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>803</v>
+        <v>747</v>
       </c>
       <c r="B155">
         <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>568</v>
+        <v>512</v>
       </c>
       <c r="D155" t="s">
         <v>158</v>
@@ -7953,7 +7956,7 @@
         <v>36706</v>
       </c>
       <c r="F155" t="s">
-        <v>569</v>
+        <v>513</v>
       </c>
       <c r="G155" t="s">
         <v>21</v>
@@ -7962,24 +7965,24 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>570</v>
+        <v>514</v>
       </c>
       <c r="J155" t="s">
-        <v>571</v>
+        <v>515</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>804</v>
+        <v>748</v>
       </c>
       <c r="B156">
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>572</v>
+        <v>516</v>
       </c>
       <c r="D156" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="E156" s="1">
         <v>31235</v>
@@ -7994,21 +7997,21 @@
         <v>3</v>
       </c>
       <c r="I156" t="s">
-        <v>574</v>
+        <v>518</v>
       </c>
       <c r="J156" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>805</v>
+        <v>749</v>
       </c>
       <c r="B157">
         <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>576</v>
+        <v>520</v>
       </c>
       <c r="D157" t="s">
         <v>9</v>
@@ -8017,7 +8020,7 @@
         <v>35295</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="G157" t="s">
         <v>23</v>
@@ -8026,30 +8029,30 @@
         <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="J157" t="s">
-        <v>578</v>
+        <v>522</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>806</v>
+        <v>750</v>
       </c>
       <c r="B158">
         <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>579</v>
+        <v>523</v>
       </c>
       <c r="D158" t="s">
-        <v>580</v>
+        <v>524</v>
       </c>
       <c r="E158" s="1">
         <v>32412</v>
       </c>
       <c r="F158" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="G158" t="s">
         <v>29</v>
@@ -8058,24 +8061,24 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>581</v>
+        <v>525</v>
       </c>
       <c r="J158" t="s">
-        <v>582</v>
+        <v>526</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>807</v>
+        <v>751</v>
       </c>
       <c r="B159">
         <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="D159" t="s">
-        <v>583</v>
+        <v>527</v>
       </c>
       <c r="E159" s="1">
         <v>37533</v>
@@ -8090,24 +8093,24 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="J159" t="s">
-        <v>585</v>
+        <v>529</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>808</v>
+        <v>752</v>
       </c>
       <c r="B160">
         <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>586</v>
+        <v>530</v>
       </c>
       <c r="D160" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E160" s="1">
         <v>34286</v>
@@ -8122,21 +8125,21 @@
         <v>63</v>
       </c>
       <c r="I160" t="s">
-        <v>587</v>
+        <v>531</v>
       </c>
       <c r="J160" t="s">
-        <v>588</v>
+        <v>532</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>809</v>
+        <v>753</v>
       </c>
       <c r="B161">
         <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="D161" t="s">
         <v>54</v>
@@ -8145,7 +8148,7 @@
         <v>32865</v>
       </c>
       <c r="F161" t="s">
-        <v>590</v>
+        <v>534</v>
       </c>
       <c r="G161" t="s">
         <v>21</v>
@@ -8154,30 +8157,30 @@
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>591</v>
+        <v>535</v>
       </c>
       <c r="J161" t="s">
-        <v>592</v>
+        <v>536</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>810</v>
+        <v>754</v>
       </c>
       <c r="B162">
         <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>593</v>
+        <v>537</v>
       </c>
       <c r="D162" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="E162" s="1">
         <v>29982</v>
       </c>
       <c r="F162" t="s">
-        <v>594</v>
+        <v>538</v>
       </c>
       <c r="G162" t="s">
         <v>13</v>
@@ -8186,30 +8189,30 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>595</v>
+        <v>539</v>
       </c>
       <c r="J162" t="s">
-        <v>596</v>
+        <v>540</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>811</v>
+        <v>755</v>
       </c>
       <c r="B163">
         <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>597</v>
+        <v>541</v>
       </c>
       <c r="D163" t="s">
-        <v>598</v>
+        <v>542</v>
       </c>
       <c r="E163" s="1">
         <v>35836</v>
       </c>
       <c r="F163" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G163" t="s">
         <v>35</v>
@@ -8218,27 +8221,27 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="J163" t="s">
-        <v>600</v>
+        <v>544</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>812</v>
+        <v>756</v>
       </c>
       <c r="C164" t="s">
-        <v>638</v>
+        <v>582</v>
       </c>
       <c r="D164" t="s">
-        <v>639</v>
+        <v>583</v>
       </c>
       <c r="E164" s="1">
         <v>27548</v>
       </c>
       <c r="F164" t="s">
-        <v>837</v>
+        <v>781</v>
       </c>
       <c r="G164" t="s">
         <v>26</v>
@@ -8247,24 +8250,24 @@
         <v>5</v>
       </c>
       <c r="I164" t="s">
-        <v>851</v>
+        <v>795</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>813</v>
+        <v>757</v>
       </c>
       <c r="C165" t="s">
-        <v>640</v>
+        <v>584</v>
       </c>
       <c r="D165" t="s">
-        <v>641</v>
+        <v>585</v>
       </c>
       <c r="E165" s="1">
         <v>32679</v>
       </c>
       <c r="F165" t="s">
-        <v>836</v>
+        <v>780</v>
       </c>
       <c r="G165" t="s">
         <v>40</v>
@@ -8273,24 +8276,24 @@
         <v>63</v>
       </c>
       <c r="I165" t="s">
-        <v>852</v>
+        <v>796</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
-        <v>814</v>
+        <v>758</v>
       </c>
       <c r="C166" t="s">
-        <v>642</v>
+        <v>586</v>
       </c>
       <c r="D166" t="s">
-        <v>643</v>
+        <v>587</v>
       </c>
       <c r="E166" s="1">
         <v>34758</v>
       </c>
       <c r="F166" t="s">
-        <v>834</v>
+        <v>778</v>
       </c>
       <c r="G166" t="s">
         <v>23</v>
@@ -8299,24 +8302,24 @@
         <v>43</v>
       </c>
       <c r="I166" t="s">
-        <v>853</v>
+        <v>797</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>815</v>
+        <v>759</v>
       </c>
       <c r="C167" t="s">
-        <v>644</v>
+        <v>588</v>
       </c>
       <c r="D167" t="s">
-        <v>645</v>
+        <v>589</v>
       </c>
       <c r="E167" s="1">
         <v>30691</v>
       </c>
       <c r="F167" t="s">
-        <v>835</v>
+        <v>779</v>
       </c>
       <c r="G167" t="s">
         <v>11</v>
@@ -8325,24 +8328,24 @@
         <v>43</v>
       </c>
       <c r="I167" t="s">
-        <v>854</v>
+        <v>798</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B168" s="2" t="s">
-        <v>646</v>
+        <v>590</v>
       </c>
       <c r="C168" t="s">
-        <v>647</v>
+        <v>591</v>
       </c>
       <c r="D168" t="s">
-        <v>648</v>
+        <v>592</v>
       </c>
       <c r="E168" s="1">
         <v>29800</v>
       </c>
       <c r="F168" t="s">
-        <v>649</v>
+        <v>593</v>
       </c>
       <c r="G168" t="s">
         <v>31</v>
@@ -8351,24 +8354,27 @@
         <v>43</v>
       </c>
       <c r="I168" t="s">
-        <v>855</v>
+        <v>799</v>
+      </c>
+      <c r="J168" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>857</v>
+        <v>801</v>
       </c>
       <c r="C169" t="s">
-        <v>816</v>
+        <v>760</v>
       </c>
       <c r="D169" t="s">
-        <v>817</v>
+        <v>761</v>
       </c>
       <c r="E169" s="1">
         <v>33559</v>
       </c>
       <c r="F169" t="s">
-        <v>838</v>
+        <v>782</v>
       </c>
       <c r="G169" t="s">
         <v>23</v>
@@ -8377,18 +8383,18 @@
         <v>5</v>
       </c>
       <c r="I169" t="s">
-        <v>856</v>
+        <v>800</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
-        <v>858</v>
+        <v>802</v>
       </c>
       <c r="C170" t="s">
-        <v>818</v>
+        <v>762</v>
       </c>
       <c r="D170" t="s">
-        <v>819</v>
+        <v>763</v>
       </c>
       <c r="E170" s="1">
         <v>29027</v>
@@ -8403,24 +8409,24 @@
         <v>5</v>
       </c>
       <c r="I170" t="s">
-        <v>843</v>
+        <v>787</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>859</v>
+        <v>803</v>
       </c>
       <c r="C171" t="s">
-        <v>820</v>
+        <v>764</v>
       </c>
       <c r="D171" t="s">
-        <v>821</v>
+        <v>765</v>
       </c>
       <c r="E171" s="1">
         <v>32981</v>
       </c>
       <c r="F171" t="s">
-        <v>840</v>
+        <v>784</v>
       </c>
       <c r="G171" t="s">
         <v>13</v>
@@ -8429,24 +8435,24 @@
         <v>5</v>
       </c>
       <c r="I171" t="s">
-        <v>844</v>
+        <v>788</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>860</v>
+        <v>804</v>
       </c>
       <c r="C172" t="s">
-        <v>823</v>
+        <v>767</v>
       </c>
       <c r="D172" t="s">
-        <v>822</v>
+        <v>766</v>
       </c>
       <c r="E172" s="1">
         <v>22949</v>
       </c>
       <c r="F172" t="s">
-        <v>841</v>
+        <v>785</v>
       </c>
       <c r="G172" t="s">
         <v>18</v>
@@ -8455,24 +8461,24 @@
         <v>5</v>
       </c>
       <c r="I172" t="s">
-        <v>845</v>
+        <v>789</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
-        <v>861</v>
+        <v>805</v>
       </c>
       <c r="C173" t="s">
-        <v>824</v>
+        <v>768</v>
       </c>
       <c r="D173" t="s">
-        <v>825</v>
+        <v>769</v>
       </c>
       <c r="E173" s="1">
         <v>28206</v>
       </c>
       <c r="F173" t="s">
-        <v>839</v>
+        <v>783</v>
       </c>
       <c r="G173" t="s">
         <v>40</v>
@@ -8481,24 +8487,24 @@
         <v>5</v>
       </c>
       <c r="I173" t="s">
-        <v>846</v>
+        <v>790</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
-        <v>862</v>
+        <v>806</v>
       </c>
       <c r="C174" t="s">
-        <v>826</v>
+        <v>770</v>
       </c>
       <c r="D174" t="s">
-        <v>827</v>
+        <v>771</v>
       </c>
       <c r="E174" s="1">
         <v>32679</v>
       </c>
       <c r="F174" t="s">
-        <v>839</v>
+        <v>783</v>
       </c>
       <c r="G174" t="s">
         <v>37</v>
@@ -8507,18 +8513,18 @@
         <v>5</v>
       </c>
       <c r="I174" t="s">
-        <v>847</v>
+        <v>791</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
-        <v>863</v>
+        <v>807</v>
       </c>
       <c r="C175" t="s">
-        <v>829</v>
+        <v>773</v>
       </c>
       <c r="D175" t="s">
-        <v>828</v>
+        <v>772</v>
       </c>
       <c r="E175" s="1">
         <v>26848</v>
@@ -8533,18 +8539,18 @@
         <v>5</v>
       </c>
       <c r="I175" t="s">
-        <v>848</v>
+        <v>792</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
-        <v>864</v>
+        <v>808</v>
       </c>
       <c r="C176" t="s">
-        <v>830</v>
+        <v>774</v>
       </c>
       <c r="D176" t="s">
-        <v>831</v>
+        <v>775</v>
       </c>
       <c r="E176" s="1">
         <v>36021</v>
@@ -8559,24 +8565,24 @@
         <v>5</v>
       </c>
       <c r="I176" t="s">
-        <v>849</v>
+        <v>793</v>
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
-        <v>865</v>
+        <v>809</v>
       </c>
       <c r="C177" t="s">
-        <v>832</v>
+        <v>776</v>
       </c>
       <c r="D177" t="s">
-        <v>833</v>
+        <v>777</v>
       </c>
       <c r="E177" s="1">
         <v>32412</v>
       </c>
       <c r="F177" t="s">
-        <v>842</v>
+        <v>786</v>
       </c>
       <c r="G177" t="s">
         <v>40</v>
@@ -8585,7 +8591,7 @@
         <v>5</v>
       </c>
       <c r="I177" t="s">
-        <v>850</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>

--- a/Liste Mitglieder.xlsx
+++ b/Liste Mitglieder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ec4a8a11e8d582b/Desktop/Kartei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{762A08EB-8B04-4B13-A96F-258081B27D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA58854F-99C6-4A75-87BA-EB7AD662340A}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="8_{762A08EB-8B04-4B13-A96F-258081B27D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40CB2987-630E-4F9C-A65F-12CCDF09467F}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{BDA9004B-4F75-4369-AFC8-265EACD9784A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BDA9004B-4F75-4369-AFC8-265EACD9784A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="880">
   <si>
     <t>Nachname</t>
   </si>
@@ -989,9 +989,6 @@
     <t>Tulpenplatz 50, 80140 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit langen welligen roten Haaren und frechen Sommersprossen. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Simon</t>
   </si>
   <si>
@@ -1001,27 +998,18 @@
     <t>Farnallee 102, 80354 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines großen Mannes mit kurzem schwarzem Haar und einem ernsten Ausdruck. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Nadine</t>
   </si>
   <si>
     <t>Kamillenstraße 65, 80468 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit mittellangen dunkelbraunen Haaren und einer runden Brille. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Anwalt</t>
   </si>
   <si>
     <t>Glockenblumenplatz 88, 80809 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines schlanken Mannes mit kurzen grauen Haaren und markantem Kinn. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Rebecca</t>
   </si>
   <si>
@@ -1031,15 +1019,9 @@
     <t>Roseweg 21, 80689 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer großen Frau mit langen blonden Haaren und einem sanften Lächeln. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Gänseblümchenstraße 27, 80526 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit einer Brille und leicht welligem dunkelbraunem Haar. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Scholz</t>
   </si>
   <si>
@@ -1052,27 +1034,18 @@
     <t>Fliederplatz 79, 80294 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit kurzen schwarzen Haaren und einem Nasenpiercing. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Tobias</t>
   </si>
   <si>
     <t>Mimosenweg 74, 80907 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit Tattoos an den Armen und kurzem blondem Haar. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Anita</t>
   </si>
   <si>
     <t>Veilchenallee 105, 80778 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit einem Dutt und einer schmalen Brille. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Groß</t>
   </si>
   <si>
@@ -1082,15 +1055,9 @@
     <t>Löwenzahnstraße 16, 80269 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit Bart und kurzen dunkelbraunen Haaren. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Gerberaplatz 51, 80141 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit langen schwarzen Haaren und einem Lächeln. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Marc</t>
   </si>
   <si>
@@ -1100,9 +1067,6 @@
     <t>Orchideenallee 103, 80355 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines schlanken Mannes mit einer runden Brille und kurzem blonden Haar. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>König</t>
   </si>
   <si>
@@ -1112,9 +1076,6 @@
     <t>Edelweißstraße 66, 80469 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit einem Zopf und blauen Augen. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Graf</t>
   </si>
   <si>
@@ -1124,33 +1085,21 @@
     <t>Lilienplatz 89, 80810 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines großen Mannes mit kurzen dunkelblonden Haaren und einem Lächeln. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Petunienweg 22, 80690 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit langen braunen Haaren und einem kreativen Blick. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Bäcker</t>
   </si>
   <si>
     <t>Primelstraße 28, 80527 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit Glatze und einem Schnauzbart. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Sängerin</t>
   </si>
   <si>
     <t>Geranienplatz 80, 80295 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit langen blonden Haaren und funkelnden Augen. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Winter</t>
   </si>
   <si>
@@ -1160,9 +1109,6 @@
     <t>Rosenweg 75, 80908 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines jungen Mannes mit kurzen schwarzen Haaren und einem entspannten Blick. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Sommer</t>
   </si>
   <si>
@@ -1172,9 +1118,6 @@
     <t>Daisyallee 106, 80779 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit kurzen roten Haaren und einem Lächeln. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Patrick</t>
   </si>
   <si>
@@ -1184,33 +1127,21 @@
     <t>Azaleenstraße 10, 80301 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit kurzem braunem Haar und Brille. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Begonienplatz 46, 80845 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer jungen Frau mit langen blonden Haaren und einem intensiven Blick. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Tierarzt</t>
   </si>
   <si>
     <t>Chrysanthemenallee 32, 80234 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines schlanken Mannes mit kurzen schwarzen Haaren und einem freundlichen Lächeln. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Hannah</t>
   </si>
   <si>
     <t>Dahlienstraße 58, 80723 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer jungen Frau mit lockigem braunem Haar und einem inspirierten Ausdruck. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Schäfer</t>
   </si>
   <si>
@@ -1220,15 +1151,9 @@
     <t>Efeuplatz 91, 80930 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines großen Mannes mit einer Kamera um den Hals und kurzem blondem Haar. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Farnallee 17, 80420 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit einem Hut und mittellangen braunen Haaren. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Timo</t>
   </si>
   <si>
@@ -1238,9 +1163,6 @@
     <t>Gloxinienweg 49, 80360 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit Tattoos am Hals und kurzem schwarzem Haar. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Vanessa</t>
   </si>
   <si>
@@ -1250,9 +1172,6 @@
     <t>Hortensienplatz 74, 80588 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit Zopf und einem verträumten Lächeln. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Hoffmann</t>
   </si>
   <si>
@@ -1265,168 +1184,108 @@
     <t>Irisstraße 22, 80850 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines schlanken Mannes mit einer Brille und kurzen dunkelblonden Haaren. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Jasminallee 85, 80970 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer athletischen Frau mit langem schwarzem Haar und einem energischen Ausdruck. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Manuel</t>
   </si>
   <si>
     <t>Kamelienweg 10, 80201 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines jungen Mannes mit Brille und mittellangen braunen Haaren. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Kathrin</t>
   </si>
   <si>
     <t>Lavendelplatz 38, 80750 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit einem Dutt und einem sanften Lächeln. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Magnolienstraße 63, 80670 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit einer schmalen Brille und kurzen dunklen Haaren. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Ziegler</t>
   </si>
   <si>
     <t>Nelkenweg 47, 80456 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit langen welligen roten Haaren und einem intensiven Blick. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Seidel</t>
   </si>
   <si>
     <t>Orchideenplatz 98, 80540 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines großen Mannes mit kurzen blonden Haaren und einem seriösen Ausdruck. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Hahn</t>
   </si>
   <si>
     <t>Petunienallee 23, 80925 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit einem Zopf und einem entspannten Lächeln. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Dennis</t>
   </si>
   <si>
     <t>Quittenstraße 59, 80765 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit einem Bart und einem freundlichen Lächeln. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Heike</t>
   </si>
   <si>
     <t>Rosenplatz 16, 80834 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit einer Brille und einem Dutt. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Joachim</t>
   </si>
   <si>
     <t>Schneeglöckchenweg 84, 80522 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines großen Mannes mit Glatze und einem kritischen Blick. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Franz</t>
   </si>
   <si>
     <t>Beethovenstraße 12, 80771 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines schlanken Mannes mit kurzen blonden Haaren und Brille. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Balletttänzerin</t>
   </si>
   <si>
     <t>Donauweg 45, 80358 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer jungen Frau mit einem eleganten Ausdruck und langem schwarzem Haar. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Fahrlehrer</t>
   </si>
   <si>
     <t>Elisenplatz 73, 80690 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit einem Bart und kurzen grauen Haaren. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Freiherrstraße 30, 80550 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit Brille und mittellangem roten Haar. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Roth</t>
   </si>
   <si>
     <t>Gutenbergallee 52, 80420 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines jungen Mannes mit Tätowierungen am Arm und kurzen dunklen Haaren. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Flugbegleiterin</t>
   </si>
   <si>
     <t>Herzogstraße 61, 80340 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit einem fröhlichen Lächeln und langem braunem Haar. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Imker</t>
   </si>
   <si>
     <t>Isarweg 14, 80685 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit einem Bart und einer Schirmmütze. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Kaiser</t>
   </si>
   <si>
     <t>Johannstraße 35, 80750 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer jungen Frau mit kurzem blonden Haar und einem nachdenklichen Blick. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Konradplatz 46, 80902 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines großen Mannes mit einem lockeren Lächeln und kurzen braunen Haaren. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Carolin</t>
   </si>
   <si>
@@ -1436,9 +1295,6 @@
     <t>Ludwigallee 59, 80510 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit mittellangem schwarzem Haar und einem seriösen Ausdruck. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Schultz</t>
   </si>
   <si>
@@ -1448,60 +1304,39 @@
     <t>Mozartweg 28, 80470 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines jungen Mannes mit Brille und kurzen dunklen Haaren. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Lucia</t>
   </si>
   <si>
     <t>Nikolausplatz 37, 80760 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit einem kreativen Blick und langem rotem Haar. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Hartmann</t>
   </si>
   <si>
     <t>Ottostraße 84, 80620 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit einem selbstbewussten Lächeln und kurzen blonden Haaren. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Isabelle</t>
   </si>
   <si>
     <t>Paulusweg 95, 80940 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer hohen schlanken Frau mit einem sanften Blick und langem braunem Haar. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Tom</t>
   </si>
   <si>
     <t>Rainerstraße 10, 80680 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines großen Mannes mit einem Bart und kurzen grauen Haaren. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Stefanplatz 21, 80840 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer jungen Frau mit einem lächelnden Ausdruck und mittellangem blonden Haar. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Lehmann</t>
   </si>
   <si>
     <t>Thomasallee 78, 80960 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit einer Kamera um den Hals und mittellangem dunklem Haar. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Al-Sayed</t>
   </si>
   <si>
@@ -1514,9 +1349,6 @@
     <t>Viktorstraße 23, 80841 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer jungen Muslimin mit Hijab, dunklen Augen und einem freundlichen Lächeln. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Bhatia</t>
   </si>
   <si>
@@ -1526,27 +1358,18 @@
     <t>Quellweg 54, 80799 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit dunkler Haut, Schnurrbart und kurzen schwarzen Haaren. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Modebloggerin</t>
   </si>
   <si>
     <t>Romerostraße 12, 80833 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer jungen Frau mit asiatischen Zügen, mittellangem schwarzem Haar und einer eleganten Ausstrahlung. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Sanchez</t>
   </si>
   <si>
     <t>Silberplatz 67, 80955 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines großen Mannes mit tan Haut, einem lockigen Bart und dunklen Augen. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Okafor</t>
   </si>
   <si>
@@ -1556,9 +1379,6 @@
     <t>Titaniastraße 89, 80745 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit afrikanischen Zügen, kurzen krausen Haaren und einer warmen Ausstrahlung. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Heinrich</t>
   </si>
   <si>
@@ -1571,9 +1391,6 @@
     <t>Urbanplatz 11, 80825 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines jungen Mannes mit mittellangem braunen Haar und Brille. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Beck</t>
   </si>
   <si>
@@ -1583,9 +1400,6 @@
     <t>Voltaireweg 44, 80850 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit einem sanften Lächeln und langem blonden Haar. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Drescher</t>
   </si>
   <si>
@@ -1595,18 +1409,12 @@
     <t>Wagnerstraße 33, 80875 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit kurzen grauen Haaren und einem Bart. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Ebert</t>
   </si>
   <si>
     <t>Xantenallee 52, 80895 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit kurzem braunen Haar und einem freundlichen Ausdruck. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Friedrich</t>
   </si>
   <si>
@@ -1616,27 +1424,18 @@
     <t>Yorkstraße 71, 80865 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines großen Mannes mit einer Kamera um den Hals und mittellangem dunklem Haar. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Klara</t>
   </si>
   <si>
     <t>Zedernweg 80, 80805 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer jungen Frau mit einem lebhaften Blick und mittellangem roten Haar. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Hirsch</t>
   </si>
   <si>
     <t>Alphastraße 9, 80835 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines schlanken Mannes mit Brille und kurzen blonden Haaren. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Jung</t>
   </si>
   <si>
@@ -1646,9 +1445,6 @@
     <t>Betaplaza 28, 80845 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer mittelgroßen Frau mit Brille und langem dunkelbraunem Haar. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Kern</t>
   </si>
   <si>
@@ -1658,9 +1454,6 @@
     <t>Charonweg 47, 80855 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil eines mittelgroßen Mannes mit Tattoos am Arm und einem kurzen Bart. Die Details seines Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Lutz</t>
   </si>
   <si>
@@ -1670,9 +1463,6 @@
     <t>Deltastraße 66, 80865 München</t>
   </si>
   <si>
-    <t>Porträt im Comic-Stil einer schlanken Frau mit einem fröhlichen Lächeln und kurzen schwarzen Haaren. Die Details ihres Gesichts sind fein gezeichnet, ohne ins Karikaturhafte zu verfallen.</t>
-  </si>
-  <si>
     <t>Kennziffer</t>
   </si>
   <si>
@@ -2637,6 +2427,255 @@
   </si>
   <si>
     <t>92.png</t>
+  </si>
+  <si>
+    <t>93.png</t>
+  </si>
+  <si>
+    <t>94.png</t>
+  </si>
+  <si>
+    <t>95.png</t>
+  </si>
+  <si>
+    <t>96.png</t>
+  </si>
+  <si>
+    <t>97.png</t>
+  </si>
+  <si>
+    <t>98.png</t>
+  </si>
+  <si>
+    <t>99.png</t>
+  </si>
+  <si>
+    <t>100.png</t>
+  </si>
+  <si>
+    <t>101.png</t>
+  </si>
+  <si>
+    <t>102.png</t>
+  </si>
+  <si>
+    <t>103.png</t>
+  </si>
+  <si>
+    <t>104.png</t>
+  </si>
+  <si>
+    <t>105.png</t>
+  </si>
+  <si>
+    <t>106.png</t>
+  </si>
+  <si>
+    <t>107.png</t>
+  </si>
+  <si>
+    <t>108.png</t>
+  </si>
+  <si>
+    <t>109.png</t>
+  </si>
+  <si>
+    <t>110.png</t>
+  </si>
+  <si>
+    <t>111.png</t>
+  </si>
+  <si>
+    <t>112.png</t>
+  </si>
+  <si>
+    <t>113.png</t>
+  </si>
+  <si>
+    <t>114.png</t>
+  </si>
+  <si>
+    <t>115.png</t>
+  </si>
+  <si>
+    <t>116.png</t>
+  </si>
+  <si>
+    <t>117.png</t>
+  </si>
+  <si>
+    <t>118.png</t>
+  </si>
+  <si>
+    <t>119.png</t>
+  </si>
+  <si>
+    <t>120.png</t>
+  </si>
+  <si>
+    <t>121.png</t>
+  </si>
+  <si>
+    <t>122.png</t>
+  </si>
+  <si>
+    <t>123.png</t>
+  </si>
+  <si>
+    <t>124.png</t>
+  </si>
+  <si>
+    <t>125.png</t>
+  </si>
+  <si>
+    <t>126.png</t>
+  </si>
+  <si>
+    <t>127.png</t>
+  </si>
+  <si>
+    <t>128.png</t>
+  </si>
+  <si>
+    <t>129.png</t>
+  </si>
+  <si>
+    <t>130.png</t>
+  </si>
+  <si>
+    <t>131.png</t>
+  </si>
+  <si>
+    <t>132.png</t>
+  </si>
+  <si>
+    <t>133.png</t>
+  </si>
+  <si>
+    <t>134.png</t>
+  </si>
+  <si>
+    <t>135.png</t>
+  </si>
+  <si>
+    <t>136.png</t>
+  </si>
+  <si>
+    <t>137.png</t>
+  </si>
+  <si>
+    <t>139.png</t>
+  </si>
+  <si>
+    <t>138.png</t>
+  </si>
+  <si>
+    <t>140.png</t>
+  </si>
+  <si>
+    <t>141.png</t>
+  </si>
+  <si>
+    <t>142.png</t>
+  </si>
+  <si>
+    <t>143.png</t>
+  </si>
+  <si>
+    <t>144.png</t>
+  </si>
+  <si>
+    <t>145.png</t>
+  </si>
+  <si>
+    <t>146.png</t>
+  </si>
+  <si>
+    <t>147.png</t>
+  </si>
+  <si>
+    <t>148.png</t>
+  </si>
+  <si>
+    <t>149.png</t>
+  </si>
+  <si>
+    <t>150.png</t>
+  </si>
+  <si>
+    <t>151.png</t>
+  </si>
+  <si>
+    <t>152.png</t>
+  </si>
+  <si>
+    <t>153.png</t>
+  </si>
+  <si>
+    <t>154.png</t>
+  </si>
+  <si>
+    <t>155.png</t>
+  </si>
+  <si>
+    <t>156.png</t>
+  </si>
+  <si>
+    <t>157.png</t>
+  </si>
+  <si>
+    <t>158.png</t>
+  </si>
+  <si>
+    <t>159.png</t>
+  </si>
+  <si>
+    <t>160.png</t>
+  </si>
+  <si>
+    <t>161.png</t>
+  </si>
+  <si>
+    <t>162.png</t>
+  </si>
+  <si>
+    <t>163.png</t>
+  </si>
+  <si>
+    <t>164.png</t>
+  </si>
+  <si>
+    <t>166.png</t>
+  </si>
+  <si>
+    <t>165.png</t>
+  </si>
+  <si>
+    <t>170.png</t>
+  </si>
+  <si>
+    <t>171.png</t>
+  </si>
+  <si>
+    <t>172.png</t>
+  </si>
+  <si>
+    <t>173.png</t>
+  </si>
+  <si>
+    <t>174.png</t>
+  </si>
+  <si>
+    <t>175.png</t>
+  </si>
+  <si>
+    <t>176.png</t>
+  </si>
+  <si>
+    <t>177.png</t>
+  </si>
+  <si>
+    <t>178.png</t>
   </si>
 </sst>
 </file>
@@ -3001,10 +3040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAD25C7-6EC7-4787-AFF7-FD054CF6041C}">
-  <dimension ref="A1:J177"/>
+  <dimension ref="B1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F76" workbookViewId="0">
-      <selection activeCell="J95" sqref="J95"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3014,9 +3053,9 @@
     <col min="8" max="8" width="3.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>545</v>
+        <v>475</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -3043,12 +3082,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>524</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -3072,15 +3108,12 @@
         <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>595</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>525</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -3104,15 +3137,12 @@
         <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>526</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -3136,15 +3166,12 @@
         <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>597</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>527</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
@@ -3168,15 +3195,12 @@
         <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>598</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>528</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
@@ -3200,15 +3224,12 @@
         <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>599</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>529</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -3232,15 +3253,12 @@
         <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>600</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>530</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -3264,15 +3282,12 @@
         <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>601</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>531</v>
       </c>
       <c r="C9" t="s">
         <v>69</v>
@@ -3296,15 +3311,12 @@
         <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>602</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>532</v>
       </c>
       <c r="C10" t="s">
         <v>73</v>
@@ -3328,15 +3340,12 @@
         <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>603</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>533</v>
       </c>
       <c r="C11" t="s">
         <v>77</v>
@@ -3360,15 +3369,12 @@
         <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>604</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>534</v>
       </c>
       <c r="C12" t="s">
         <v>81</v>
@@ -3392,15 +3398,12 @@
         <v>83</v>
       </c>
       <c r="J12" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>605</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>535</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -3424,15 +3427,12 @@
         <v>86</v>
       </c>
       <c r="J13" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>606</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>536</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -3456,15 +3456,12 @@
         <v>89</v>
       </c>
       <c r="J14" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>607</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>537</v>
       </c>
       <c r="C15" t="s">
         <v>90</v>
@@ -3488,15 +3485,12 @@
         <v>93</v>
       </c>
       <c r="J15" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>608</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>538</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -3520,15 +3514,12 @@
         <v>95</v>
       </c>
       <c r="J16" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>609</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>539</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -3552,15 +3543,12 @@
         <v>98</v>
       </c>
       <c r="J17" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>610</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>540</v>
       </c>
       <c r="C18" t="s">
         <v>99</v>
@@ -3584,15 +3572,12 @@
         <v>101</v>
       </c>
       <c r="J18" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>611</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>541</v>
       </c>
       <c r="C19" t="s">
         <v>102</v>
@@ -3616,15 +3601,12 @@
         <v>105</v>
       </c>
       <c r="J19" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>612</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>542</v>
       </c>
       <c r="C20" t="s">
         <v>106</v>
@@ -3648,15 +3630,12 @@
         <v>109</v>
       </c>
       <c r="J20" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>613</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>543</v>
       </c>
       <c r="C21" t="s">
         <v>110</v>
@@ -3680,15 +3659,12 @@
         <v>113</v>
       </c>
       <c r="J21" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>614</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>544</v>
       </c>
       <c r="C22" t="s">
         <v>114</v>
@@ -3712,15 +3688,12 @@
         <v>117</v>
       </c>
       <c r="J22" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>615</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>545</v>
       </c>
       <c r="C23" t="s">
         <v>118</v>
@@ -3744,15 +3717,12 @@
         <v>121</v>
       </c>
       <c r="J23" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>616</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>546</v>
       </c>
       <c r="C24" t="s">
         <v>122</v>
@@ -3776,15 +3746,12 @@
         <v>125</v>
       </c>
       <c r="J24" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>617</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>547</v>
       </c>
       <c r="C25" t="s">
         <v>126</v>
@@ -3808,15 +3775,12 @@
         <v>129</v>
       </c>
       <c r="J25" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>618</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>548</v>
       </c>
       <c r="C26" t="s">
         <v>130</v>
@@ -3840,15 +3804,12 @@
         <v>133</v>
       </c>
       <c r="J26" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>619</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>549</v>
       </c>
       <c r="C27" t="s">
         <v>134</v>
@@ -3872,15 +3833,12 @@
         <v>136</v>
       </c>
       <c r="J27" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>620</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>550</v>
       </c>
       <c r="C28" t="s">
         <v>137</v>
@@ -3904,15 +3862,12 @@
         <v>140</v>
       </c>
       <c r="J28" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>621</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>551</v>
       </c>
       <c r="C29" t="s">
         <v>141</v>
@@ -3936,15 +3891,12 @@
         <v>143</v>
       </c>
       <c r="J29" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>622</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>552</v>
       </c>
       <c r="C30" t="s">
         <v>144</v>
@@ -3968,15 +3920,12 @@
         <v>147</v>
       </c>
       <c r="J30" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>623</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>553</v>
       </c>
       <c r="C31" t="s">
         <v>148</v>
@@ -4000,15 +3949,12 @@
         <v>150</v>
       </c>
       <c r="J31" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>624</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>554</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
@@ -4032,15 +3978,12 @@
         <v>153</v>
       </c>
       <c r="J32" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>625</v>
-      </c>
-      <c r="B33">
-        <v>32</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>555</v>
       </c>
       <c r="C33" t="s">
         <v>154</v>
@@ -4064,15 +4007,12 @@
         <v>157</v>
       </c>
       <c r="J33" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>626</v>
-      </c>
-      <c r="B34">
-        <v>33</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>556</v>
       </c>
       <c r="C34" t="s">
         <v>73</v>
@@ -4096,15 +4036,12 @@
         <v>160</v>
       </c>
       <c r="J34" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>627</v>
-      </c>
-      <c r="B35">
-        <v>34</v>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>557</v>
       </c>
       <c r="C35" t="s">
         <v>161</v>
@@ -4128,15 +4065,12 @@
         <v>163</v>
       </c>
       <c r="J35" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>628</v>
-      </c>
-      <c r="B36">
-        <v>35</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>558</v>
       </c>
       <c r="C36" t="s">
         <v>69</v>
@@ -4160,15 +4094,12 @@
         <v>165</v>
       </c>
       <c r="J36" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>629</v>
-      </c>
-      <c r="B37">
-        <v>36</v>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>559</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
@@ -4192,15 +4123,12 @@
         <v>168</v>
       </c>
       <c r="J37" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>630</v>
-      </c>
-      <c r="B38">
-        <v>37</v>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>560</v>
       </c>
       <c r="C38" t="s">
         <v>77</v>
@@ -4224,15 +4152,12 @@
         <v>171</v>
       </c>
       <c r="J38" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>631</v>
-      </c>
-      <c r="B39">
-        <v>38</v>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>561</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
@@ -4256,15 +4181,12 @@
         <v>173</v>
       </c>
       <c r="J39" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>632</v>
-      </c>
-      <c r="B40">
-        <v>39</v>
+        <v>742</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>562</v>
       </c>
       <c r="C40" t="s">
         <v>61</v>
@@ -4288,15 +4210,12 @@
         <v>176</v>
       </c>
       <c r="J40" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>633</v>
-      </c>
-      <c r="B41">
-        <v>40</v>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>563</v>
       </c>
       <c r="C41" t="s">
         <v>177</v>
@@ -4320,15 +4239,12 @@
         <v>180</v>
       </c>
       <c r="J41" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>634</v>
-      </c>
-      <c r="B42">
-        <v>41</v>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>564</v>
       </c>
       <c r="C42" t="s">
         <v>181</v>
@@ -4352,15 +4268,12 @@
         <v>183</v>
       </c>
       <c r="J42" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>635</v>
-      </c>
-      <c r="B43">
-        <v>42</v>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>565</v>
       </c>
       <c r="C43" t="s">
         <v>42</v>
@@ -4384,15 +4297,12 @@
         <v>185</v>
       </c>
       <c r="J43" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>636</v>
-      </c>
-      <c r="B44">
-        <v>43</v>
+        <v>746</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>566</v>
       </c>
       <c r="C44" t="s">
         <v>186</v>
@@ -4416,15 +4326,12 @@
         <v>189</v>
       </c>
       <c r="J44" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>637</v>
-      </c>
-      <c r="B45">
-        <v>44</v>
+        <v>747</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>567</v>
       </c>
       <c r="C45" t="s">
         <v>190</v>
@@ -4448,15 +4355,12 @@
         <v>193</v>
       </c>
       <c r="J45" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>638</v>
-      </c>
-      <c r="B46">
-        <v>45</v>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>568</v>
       </c>
       <c r="C46" t="s">
         <v>65</v>
@@ -4480,15 +4384,12 @@
         <v>195</v>
       </c>
       <c r="J46" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>639</v>
-      </c>
-      <c r="B47">
-        <v>46</v>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>569</v>
       </c>
       <c r="C47" t="s">
         <v>196</v>
@@ -4512,15 +4413,12 @@
         <v>199</v>
       </c>
       <c r="J47" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>640</v>
-      </c>
-      <c r="B48">
-        <v>47</v>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>570</v>
       </c>
       <c r="C48" t="s">
         <v>200</v>
@@ -4544,15 +4442,12 @@
         <v>203</v>
       </c>
       <c r="J48" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>641</v>
-      </c>
-      <c r="B49">
-        <v>48</v>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>571</v>
       </c>
       <c r="C49" t="s">
         <v>204</v>
@@ -4576,15 +4471,12 @@
         <v>207</v>
       </c>
       <c r="J49" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>642</v>
-      </c>
-      <c r="B50">
-        <v>49</v>
+        <v>752</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>572</v>
       </c>
       <c r="C50" t="s">
         <v>208</v>
@@ -4608,15 +4500,12 @@
         <v>211</v>
       </c>
       <c r="J50" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>643</v>
-      </c>
-      <c r="B51">
-        <v>50</v>
+        <v>753</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>573</v>
       </c>
       <c r="C51" t="s">
         <v>212</v>
@@ -4640,15 +4529,12 @@
         <v>215</v>
       </c>
       <c r="J51" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>644</v>
-      </c>
-      <c r="B52">
-        <v>51</v>
+        <v>754</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>574</v>
       </c>
       <c r="C52" t="s">
         <v>216</v>
@@ -4672,15 +4558,12 @@
         <v>218</v>
       </c>
       <c r="J52" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>645</v>
-      </c>
-      <c r="B53">
-        <v>52</v>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>575</v>
       </c>
       <c r="C53" t="s">
         <v>69</v>
@@ -4704,15 +4587,12 @@
         <v>220</v>
       </c>
       <c r="J53" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>646</v>
-      </c>
-      <c r="B54">
-        <v>53</v>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>576</v>
       </c>
       <c r="C54" t="s">
         <v>49</v>
@@ -4736,15 +4616,12 @@
         <v>222</v>
       </c>
       <c r="J54" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>647</v>
-      </c>
-      <c r="B55">
-        <v>54</v>
+        <v>757</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>577</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
@@ -4768,15 +4645,12 @@
         <v>225</v>
       </c>
       <c r="J55" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>648</v>
-      </c>
-      <c r="B56">
-        <v>55</v>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>578</v>
       </c>
       <c r="C56" t="s">
         <v>61</v>
@@ -4800,15 +4674,12 @@
         <v>227</v>
       </c>
       <c r="J56" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>649</v>
-      </c>
-      <c r="B57">
-        <v>56</v>
+        <v>759</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>579</v>
       </c>
       <c r="C57" t="s">
         <v>118</v>
@@ -4832,15 +4703,12 @@
         <v>230</v>
       </c>
       <c r="J57" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>650</v>
-      </c>
-      <c r="B58">
-        <v>57</v>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>580</v>
       </c>
       <c r="C58" t="s">
         <v>154</v>
@@ -4864,15 +4732,12 @@
         <v>232</v>
       </c>
       <c r="J58" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>651</v>
-      </c>
-      <c r="B59">
-        <v>58</v>
+        <v>761</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>581</v>
       </c>
       <c r="C59" t="s">
         <v>233</v>
@@ -4896,15 +4761,12 @@
         <v>235</v>
       </c>
       <c r="J59" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>652</v>
-      </c>
-      <c r="B60">
-        <v>59</v>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>582</v>
       </c>
       <c r="C60" t="s">
         <v>114</v>
@@ -4928,15 +4790,12 @@
         <v>237</v>
       </c>
       <c r="J60" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>653</v>
-      </c>
-      <c r="B61">
-        <v>60</v>
+        <v>763</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>583</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
@@ -4960,15 +4819,12 @@
         <v>239</v>
       </c>
       <c r="J61" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>654</v>
-      </c>
-      <c r="B62">
-        <v>61</v>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>584</v>
       </c>
       <c r="C62" t="s">
         <v>240</v>
@@ -4992,15 +4848,12 @@
         <v>242</v>
       </c>
       <c r="J62" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>655</v>
-      </c>
-      <c r="B63">
-        <v>62</v>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>585</v>
       </c>
       <c r="C63" t="s">
         <v>243</v>
@@ -5024,15 +4877,12 @@
         <v>244</v>
       </c>
       <c r="J63" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>656</v>
-      </c>
-      <c r="B64">
-        <v>63</v>
+        <v>766</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>586</v>
       </c>
       <c r="C64" t="s">
         <v>208</v>
@@ -5056,15 +4906,12 @@
         <v>247</v>
       </c>
       <c r="J64" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>657</v>
-      </c>
-      <c r="B65">
-        <v>64</v>
+        <v>767</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>587</v>
       </c>
       <c r="C65" t="s">
         <v>212</v>
@@ -5088,15 +4935,12 @@
         <v>249</v>
       </c>
       <c r="J65" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>658</v>
-      </c>
-      <c r="B66">
-        <v>65</v>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>588</v>
       </c>
       <c r="C66" t="s">
         <v>250</v>
@@ -5120,15 +4964,12 @@
         <v>252</v>
       </c>
       <c r="J66" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>659</v>
-      </c>
-      <c r="B67">
-        <v>66</v>
+        <v>769</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>589</v>
       </c>
       <c r="C67" t="s">
         <v>186</v>
@@ -5152,15 +4993,12 @@
         <v>253</v>
       </c>
       <c r="J67" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>660</v>
-      </c>
-      <c r="B68">
-        <v>67</v>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>590</v>
       </c>
       <c r="C68" t="s">
         <v>254</v>
@@ -5184,15 +5022,12 @@
         <v>255</v>
       </c>
       <c r="J68" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>661</v>
-      </c>
-      <c r="B69">
-        <v>68</v>
+        <v>771</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>591</v>
       </c>
       <c r="C69" t="s">
         <v>204</v>
@@ -5216,15 +5051,12 @@
         <v>257</v>
       </c>
       <c r="J69" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>662</v>
-      </c>
-      <c r="B70">
-        <v>69</v>
+        <v>772</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>592</v>
       </c>
       <c r="C70" t="s">
         <v>161</v>
@@ -5248,15 +5080,12 @@
         <v>258</v>
       </c>
       <c r="J70" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>663</v>
-      </c>
-      <c r="B71">
-        <v>70</v>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>593</v>
       </c>
       <c r="C71" t="s">
         <v>259</v>
@@ -5280,15 +5109,12 @@
         <v>262</v>
       </c>
       <c r="J71" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>664</v>
-      </c>
-      <c r="B72">
-        <v>71</v>
+        <v>774</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>594</v>
       </c>
       <c r="C72" t="s">
         <v>263</v>
@@ -5312,15 +5138,12 @@
         <v>265</v>
       </c>
       <c r="J72" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>665</v>
-      </c>
-      <c r="B73">
-        <v>72</v>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>595</v>
       </c>
       <c r="C73" t="s">
         <v>181</v>
@@ -5344,15 +5167,12 @@
         <v>267</v>
       </c>
       <c r="J73" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>666</v>
-      </c>
-      <c r="B74">
-        <v>73</v>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>596</v>
       </c>
       <c r="C74" t="s">
         <v>53</v>
@@ -5376,15 +5196,12 @@
         <v>269</v>
       </c>
       <c r="J74" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>667</v>
-      </c>
-      <c r="B75">
-        <v>74</v>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>597</v>
       </c>
       <c r="C75" t="s">
         <v>200</v>
@@ -5408,15 +5225,12 @@
         <v>272</v>
       </c>
       <c r="J75" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>668</v>
-      </c>
-      <c r="B76">
-        <v>75</v>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>598</v>
       </c>
       <c r="C76" t="s">
         <v>134</v>
@@ -5440,15 +5254,12 @@
         <v>275</v>
       </c>
       <c r="J76" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>669</v>
-      </c>
-      <c r="B77">
-        <v>76</v>
+        <v>779</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>599</v>
       </c>
       <c r="C77" t="s">
         <v>276</v>
@@ -5472,15 +5283,12 @@
         <v>279</v>
       </c>
       <c r="J77" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>670</v>
-      </c>
-      <c r="B78">
-        <v>77</v>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>600</v>
       </c>
       <c r="C78" t="s">
         <v>280</v>
@@ -5504,15 +5312,12 @@
         <v>282</v>
       </c>
       <c r="J78" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>671</v>
-      </c>
-      <c r="B79">
-        <v>78</v>
+        <v>781</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>601</v>
       </c>
       <c r="C79" t="s">
         <v>65</v>
@@ -5536,15 +5341,12 @@
         <v>285</v>
       </c>
       <c r="J79" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>672</v>
-      </c>
-      <c r="B80">
-        <v>79</v>
+        <v>782</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>602</v>
       </c>
       <c r="C80" t="s">
         <v>57</v>
@@ -5568,15 +5370,12 @@
         <v>287</v>
       </c>
       <c r="J80" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>673</v>
-      </c>
-      <c r="B81">
-        <v>80</v>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>603</v>
       </c>
       <c r="C81" t="s">
         <v>77</v>
@@ -5600,15 +5399,12 @@
         <v>289</v>
       </c>
       <c r="J81" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>674</v>
-      </c>
-      <c r="B82">
-        <v>81</v>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>604</v>
       </c>
       <c r="C82" t="s">
         <v>290</v>
@@ -5632,15 +5428,12 @@
         <v>291</v>
       </c>
       <c r="J82" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>675</v>
-      </c>
-      <c r="B83">
-        <v>82</v>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>605</v>
       </c>
       <c r="C83" t="s">
         <v>8</v>
@@ -5664,15 +5457,12 @@
         <v>293</v>
       </c>
       <c r="J83" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>676</v>
-      </c>
-      <c r="B84">
-        <v>83</v>
+        <v>786</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>606</v>
       </c>
       <c r="C84" t="s">
         <v>73</v>
@@ -5696,15 +5486,12 @@
         <v>295</v>
       </c>
       <c r="J84" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>677</v>
-      </c>
-      <c r="B85">
-        <v>84</v>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>607</v>
       </c>
       <c r="C85" t="s">
         <v>69</v>
@@ -5728,15 +5515,12 @@
         <v>296</v>
       </c>
       <c r="J85" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>678</v>
-      </c>
-      <c r="B86">
-        <v>85</v>
+        <v>788</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>608</v>
       </c>
       <c r="C86" t="s">
         <v>49</v>
@@ -5760,15 +5544,12 @@
         <v>299</v>
       </c>
       <c r="J86" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>679</v>
-      </c>
-      <c r="B87">
-        <v>86</v>
+        <v>789</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>609</v>
       </c>
       <c r="C87" t="s">
         <v>53</v>
@@ -5792,15 +5573,12 @@
         <v>301</v>
       </c>
       <c r="J87" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>680</v>
-      </c>
-      <c r="B88">
-        <v>87</v>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>610</v>
       </c>
       <c r="C88" t="s">
         <v>57</v>
@@ -5824,15 +5602,12 @@
         <v>304</v>
       </c>
       <c r="J88" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>681</v>
-      </c>
-      <c r="B89">
-        <v>88</v>
+        <v>791</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>611</v>
       </c>
       <c r="C89" t="s">
         <v>61</v>
@@ -5856,15 +5631,12 @@
         <v>305</v>
       </c>
       <c r="J89" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>682</v>
-      </c>
-      <c r="B90">
-        <v>89</v>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>612</v>
       </c>
       <c r="C90" t="s">
         <v>118</v>
@@ -5888,15 +5660,12 @@
         <v>307</v>
       </c>
       <c r="J90" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>683</v>
-      </c>
-      <c r="B91">
-        <v>90</v>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>613</v>
       </c>
       <c r="C91" t="s">
         <v>308</v>
@@ -5920,15 +5689,12 @@
         <v>310</v>
       </c>
       <c r="J91" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>684</v>
-      </c>
-      <c r="B92">
-        <v>91</v>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>614</v>
       </c>
       <c r="C92" t="s">
         <v>77</v>
@@ -5952,15 +5718,12 @@
         <v>312</v>
       </c>
       <c r="J92" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>685</v>
-      </c>
-      <c r="B93">
-        <v>92</v>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>615</v>
       </c>
       <c r="C93" t="s">
         <v>313</v>
@@ -5984,15 +5747,12 @@
         <v>314</v>
       </c>
       <c r="J93" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>686</v>
-      </c>
-      <c r="B94">
-        <v>93</v>
+        <v>796</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>616</v>
       </c>
       <c r="C94" t="s">
         <v>186</v>
@@ -6016,27 +5776,24 @@
         <v>316</v>
       </c>
       <c r="J94" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>687</v>
-      </c>
-      <c r="B95">
-        <v>94</v>
+        <v>797</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>617</v>
       </c>
       <c r="C95" t="s">
         <v>42</v>
       </c>
       <c r="D95" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E95" s="1">
         <v>28207</v>
       </c>
       <c r="F95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G95" t="s">
         <v>21</v>
@@ -6045,24 +5802,21 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J95" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>688</v>
-      </c>
-      <c r="B96">
-        <v>95</v>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>618</v>
       </c>
       <c r="C96" t="s">
         <v>208</v>
       </c>
       <c r="D96" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E96" s="1">
         <v>37348</v>
@@ -6077,18 +5831,15 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J96" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>689</v>
-      </c>
-      <c r="B97">
-        <v>96</v>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>619</v>
       </c>
       <c r="C97" t="s">
         <v>254</v>
@@ -6100,7 +5851,7 @@
         <v>34101</v>
       </c>
       <c r="F97" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G97" t="s">
         <v>23</v>
@@ -6109,30 +5860,27 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J97" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>690</v>
-      </c>
-      <c r="B98">
-        <v>97</v>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>620</v>
       </c>
       <c r="C98" t="s">
         <v>154</v>
       </c>
       <c r="D98" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E98" s="1">
         <v>32679</v>
       </c>
       <c r="F98" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G98" t="s">
         <v>13</v>
@@ -6141,18 +5889,15 @@
         <v>4</v>
       </c>
       <c r="I98" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J98" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>691</v>
-      </c>
-      <c r="B99">
-        <v>98</v>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>621</v>
       </c>
       <c r="C99" t="s">
         <v>161</v>
@@ -6173,30 +5918,27 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J99" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>692</v>
-      </c>
-      <c r="B100">
-        <v>99</v>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>622</v>
       </c>
       <c r="C100" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D100" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E100" s="1">
         <v>36021</v>
       </c>
       <c r="F100" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G100" t="s">
         <v>35</v>
@@ -6205,24 +5947,21 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J100" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>693</v>
-      </c>
-      <c r="B101">
-        <v>100</v>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>623</v>
       </c>
       <c r="C101" t="s">
         <v>196</v>
       </c>
       <c r="D101" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E101" s="1">
         <v>31683</v>
@@ -6237,24 +5976,21 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="J101" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>694</v>
-      </c>
-      <c r="B102">
-        <v>101</v>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>624</v>
       </c>
       <c r="C102" t="s">
         <v>190</v>
       </c>
       <c r="D102" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E102" s="1">
         <v>37170</v>
@@ -6269,21 +6005,18 @@
         <v>43</v>
       </c>
       <c r="I102" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="J102" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>695</v>
-      </c>
-      <c r="B103">
-        <v>102</v>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>625</v>
       </c>
       <c r="C103" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D103" t="s">
         <v>221</v>
@@ -6292,7 +6025,7 @@
         <v>30274</v>
       </c>
       <c r="F103" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G103" t="s">
         <v>31</v>
@@ -6301,18 +6034,15 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="J103" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>696</v>
-      </c>
-      <c r="B104">
-        <v>103</v>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>626</v>
       </c>
       <c r="C104" t="s">
         <v>114</v>
@@ -6333,30 +6063,27 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="J104" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>697</v>
-      </c>
-      <c r="B105">
-        <v>104</v>
+        <v>807</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>627</v>
       </c>
       <c r="C105" t="s">
         <v>177</v>
       </c>
       <c r="D105" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E105" s="1">
         <v>28865</v>
       </c>
       <c r="F105" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G105" t="s">
         <v>40</v>
@@ -6365,21 +6092,18 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="J105" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>698</v>
-      </c>
-      <c r="B106">
-        <v>105</v>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>628</v>
       </c>
       <c r="C106" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D106" t="s">
         <v>70</v>
@@ -6388,7 +6112,7 @@
         <v>36578</v>
       </c>
       <c r="F106" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="G106" t="s">
         <v>23</v>
@@ -6397,24 +6121,21 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="J106" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>699</v>
-      </c>
-      <c r="B107">
-        <v>106</v>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>629</v>
       </c>
       <c r="C107" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D107" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="E107" s="1">
         <v>34398</v>
@@ -6429,18 +6150,15 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="J107" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>700</v>
-      </c>
-      <c r="B108">
-        <v>107</v>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>630</v>
       </c>
       <c r="C108" t="s">
         <v>204</v>
@@ -6461,18 +6179,15 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="J108" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>701</v>
-      </c>
-      <c r="B109">
-        <v>108</v>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>631</v>
       </c>
       <c r="C109" t="s">
         <v>126</v>
@@ -6484,7 +6199,7 @@
         <v>27173</v>
       </c>
       <c r="F109" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="G109" t="s">
         <v>35</v>
@@ -6493,18 +6208,15 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="J109" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>702</v>
-      </c>
-      <c r="B110">
-        <v>109</v>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>632</v>
       </c>
       <c r="C110" t="s">
         <v>212</v>
@@ -6516,7 +6228,7 @@
         <v>37415</v>
       </c>
       <c r="F110" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -6525,21 +6237,18 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="J110" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>703</v>
-      </c>
-      <c r="B111">
-        <v>110</v>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>633</v>
       </c>
       <c r="C111" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="D111" t="s">
         <v>268</v>
@@ -6548,7 +6257,7 @@
         <v>33074</v>
       </c>
       <c r="F111" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G111" t="s">
         <v>18</v>
@@ -6557,24 +6266,21 @@
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="J111" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>704</v>
-      </c>
-      <c r="B112">
-        <v>111</v>
+        <v>814</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>634</v>
       </c>
       <c r="C112" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="D112" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="E112" s="1">
         <v>31991</v>
@@ -6589,30 +6295,27 @@
         <v>43</v>
       </c>
       <c r="I112" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="J112" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>705</v>
-      </c>
-      <c r="B113">
-        <v>112</v>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>635</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="E113" s="1">
         <v>29467</v>
       </c>
       <c r="F113" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="G113" t="s">
         <v>13</v>
@@ -6621,18 +6324,15 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="J113" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>706</v>
-      </c>
-      <c r="B114">
-        <v>113</v>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>636</v>
       </c>
       <c r="C114" t="s">
         <v>73</v>
@@ -6653,18 +6353,15 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="J114" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>707</v>
-      </c>
-      <c r="B115">
-        <v>114</v>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>637</v>
       </c>
       <c r="C115" t="s">
         <v>69</v>
@@ -6676,7 +6373,7 @@
         <v>31007</v>
       </c>
       <c r="F115" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="G115" t="s">
         <v>40</v>
@@ -6685,24 +6382,21 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="J115" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>708</v>
-      </c>
-      <c r="B116">
-        <v>115</v>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>638</v>
       </c>
       <c r="C116" t="s">
         <v>49</v>
       </c>
       <c r="D116" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="E116" s="1">
         <v>37595</v>
@@ -6717,24 +6411,21 @@
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="J116" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>709</v>
-      </c>
-      <c r="B117">
-        <v>116</v>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>639</v>
       </c>
       <c r="C117" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="D117" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="E117" s="1">
         <v>33615</v>
@@ -6749,18 +6440,15 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="J117" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>710</v>
-      </c>
-      <c r="B118">
-        <v>117</v>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>640</v>
       </c>
       <c r="C118" t="s">
         <v>308</v>
@@ -6781,30 +6469,27 @@
         <v>4</v>
       </c>
       <c r="I118" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="J118" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>711</v>
-      </c>
-      <c r="B119">
-        <v>118</v>
+        <v>821</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>641</v>
       </c>
       <c r="C119" t="s">
         <v>77</v>
       </c>
       <c r="D119" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="E119" s="1">
         <v>31846</v>
       </c>
       <c r="F119" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G119" t="s">
         <v>29</v>
@@ -6813,30 +6498,27 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="J119" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>712</v>
-      </c>
-      <c r="B120">
-        <v>119</v>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>642</v>
       </c>
       <c r="C120" t="s">
         <v>276</v>
       </c>
       <c r="D120" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="E120" s="1">
         <v>32981</v>
       </c>
       <c r="F120" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="G120" t="s">
         <v>35</v>
@@ -6845,30 +6527,27 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="J120" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>713</v>
-      </c>
-      <c r="B121">
-        <v>120</v>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>643</v>
       </c>
       <c r="C121" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="D121" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="E121" s="1">
         <v>30097</v>
       </c>
       <c r="F121" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="G121" t="s">
         <v>18</v>
@@ -6877,18 +6556,15 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="J121" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>714</v>
-      </c>
-      <c r="B122">
-        <v>121</v>
+        <v>824</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>644</v>
       </c>
       <c r="C122" t="s">
         <v>57</v>
@@ -6909,24 +6585,21 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="J122" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>715</v>
-      </c>
-      <c r="B123">
-        <v>122</v>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>645</v>
       </c>
       <c r="C123" t="s">
         <v>200</v>
       </c>
       <c r="D123" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="E123" s="1">
         <v>37813</v>
@@ -6941,24 +6614,21 @@
         <v>43</v>
       </c>
       <c r="I123" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="J123" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>716</v>
-      </c>
-      <c r="B124">
-        <v>123</v>
+        <v>826</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>646</v>
       </c>
       <c r="C124" t="s">
         <v>53</v>
       </c>
       <c r="D124" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="E124" s="1">
         <v>34565</v>
@@ -6973,18 +6643,15 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="J124" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>717</v>
-      </c>
-      <c r="B125">
-        <v>124</v>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>647</v>
       </c>
       <c r="C125" t="s">
         <v>134</v>
@@ -7005,21 +6672,18 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="J125" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>718</v>
-      </c>
-      <c r="B126">
-        <v>125</v>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>648</v>
       </c>
       <c r="C126" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="D126" t="s">
         <v>54</v>
@@ -7037,21 +6701,18 @@
         <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="J126" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>719</v>
-      </c>
-      <c r="B127">
-        <v>126</v>
+        <v>829</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>649</v>
       </c>
       <c r="C127" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="D127" t="s">
         <v>221</v>
@@ -7069,21 +6730,18 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="J127" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>720</v>
-      </c>
-      <c r="B128">
-        <v>127</v>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>650</v>
       </c>
       <c r="C128" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="D128" t="s">
         <v>123</v>
@@ -7101,24 +6759,21 @@
         <v>4</v>
       </c>
       <c r="I128" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="J128" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>721</v>
-      </c>
-      <c r="B129">
-        <v>128</v>
+        <v>831</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>651</v>
       </c>
       <c r="C129" t="s">
         <v>240</v>
       </c>
       <c r="D129" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="E129" s="1">
         <v>30319</v>
@@ -7133,24 +6788,21 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="J129" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>722</v>
-      </c>
-      <c r="B130">
-        <v>129</v>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>652</v>
       </c>
       <c r="C130" t="s">
         <v>263</v>
       </c>
       <c r="D130" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="E130" s="1">
         <v>32550</v>
@@ -7165,24 +6817,21 @@
         <v>63</v>
       </c>
       <c r="I130" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="J130" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>723</v>
-      </c>
-      <c r="B131">
-        <v>130</v>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>653</v>
       </c>
       <c r="C131" t="s">
         <v>42</v>
       </c>
       <c r="D131" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="E131" s="1">
         <v>28206</v>
@@ -7197,21 +6846,18 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="J131" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>724</v>
-      </c>
-      <c r="B132">
-        <v>131</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>654</v>
       </c>
       <c r="C132" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="D132" t="s">
         <v>241</v>
@@ -7229,21 +6875,18 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="J132" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>725</v>
-      </c>
-      <c r="B133">
-        <v>132</v>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>655</v>
       </c>
       <c r="C133" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D133" t="s">
         <v>283</v>
@@ -7252,7 +6895,7 @@
         <v>37033</v>
       </c>
       <c r="F133" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="G133" t="s">
         <v>35</v>
@@ -7261,30 +6904,27 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="J133" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>726</v>
-      </c>
-      <c r="B134">
-        <v>133</v>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>656</v>
       </c>
       <c r="C134" t="s">
         <v>65</v>
       </c>
       <c r="D134" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E134" s="1">
         <v>27548</v>
       </c>
       <c r="F134" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="G134" t="s">
         <v>31</v>
@@ -7293,24 +6933,21 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="J134" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>727</v>
-      </c>
-      <c r="B135">
-        <v>134</v>
+        <v>837</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>657</v>
       </c>
       <c r="C135" t="s">
         <v>254</v>
       </c>
       <c r="D135" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E135" s="1">
         <v>34168</v>
@@ -7325,21 +6962,18 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="J135" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>728</v>
-      </c>
-      <c r="B136">
-        <v>135</v>
+        <v>838</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>658</v>
       </c>
       <c r="C136" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="D136" t="s">
         <v>44</v>
@@ -7348,7 +6982,7 @@
         <v>36399</v>
       </c>
       <c r="F136" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G136" t="s">
         <v>23</v>
@@ -7357,18 +6991,15 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="J136" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>729</v>
-      </c>
-      <c r="B137">
-        <v>136</v>
+        <v>839</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>659</v>
       </c>
       <c r="C137" t="s">
         <v>196</v>
@@ -7380,7 +7011,7 @@
         <v>30198</v>
       </c>
       <c r="F137" t="s">
-        <v>452</v>
+        <v>409</v>
       </c>
       <c r="G137" t="s">
         <v>21</v>
@@ -7389,18 +7020,15 @@
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="J137" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>730</v>
-      </c>
-      <c r="B138">
-        <v>137</v>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>660</v>
       </c>
       <c r="C138" t="s">
         <v>186</v>
@@ -7412,7 +7040,7 @@
         <v>28413</v>
       </c>
       <c r="F138" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
       <c r="G138" t="s">
         <v>13</v>
@@ -7421,21 +7049,18 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="J138" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>731</v>
-      </c>
-      <c r="B139">
-        <v>138</v>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>661</v>
       </c>
       <c r="C139" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D139" t="s">
         <v>182</v>
@@ -7453,18 +7078,15 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="J139" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>732</v>
-      </c>
-      <c r="B140">
-        <v>139</v>
+        <v>843</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>662</v>
       </c>
       <c r="C140" t="s">
         <v>280</v>
@@ -7485,30 +7107,27 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="J140" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>733</v>
-      </c>
-      <c r="B141">
-        <v>140</v>
+        <v>842</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>663</v>
       </c>
       <c r="C141" t="s">
         <v>313</v>
       </c>
       <c r="D141" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="E141" s="1">
         <v>30691</v>
       </c>
       <c r="F141" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="G141" t="s">
         <v>37</v>
@@ -7517,24 +7136,21 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="J141" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>734</v>
-      </c>
-      <c r="B142">
-        <v>141</v>
+        <v>844</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>664</v>
       </c>
       <c r="C142" t="s">
-        <v>467</v>
+        <v>419</v>
       </c>
       <c r="D142" t="s">
-        <v>468</v>
+        <v>420</v>
       </c>
       <c r="E142" s="1">
         <v>36575</v>
@@ -7549,24 +7165,21 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>469</v>
+        <v>421</v>
       </c>
       <c r="J142" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>735</v>
-      </c>
-      <c r="B143">
-        <v>142</v>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>665</v>
       </c>
       <c r="C143" t="s">
         <v>204</v>
       </c>
       <c r="D143" t="s">
-        <v>471</v>
+        <v>422</v>
       </c>
       <c r="E143" s="1">
         <v>33688</v>
@@ -7581,21 +7194,18 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>472</v>
+        <v>423</v>
       </c>
       <c r="J143" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>736</v>
-      </c>
-      <c r="B144">
-        <v>143</v>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>666</v>
       </c>
       <c r="C144" t="s">
-        <v>474</v>
+        <v>424</v>
       </c>
       <c r="D144" t="s">
         <v>226</v>
@@ -7613,30 +7223,27 @@
         <v>3</v>
       </c>
       <c r="I144" t="s">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="J144" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>737</v>
-      </c>
-      <c r="B145">
-        <v>144</v>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>667</v>
       </c>
       <c r="C145" t="s">
         <v>161</v>
       </c>
       <c r="D145" t="s">
-        <v>477</v>
+        <v>426</v>
       </c>
       <c r="E145" s="1">
         <v>35198</v>
       </c>
       <c r="F145" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G145" t="s">
         <v>18</v>
@@ -7645,24 +7252,21 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="J145" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>738</v>
-      </c>
-      <c r="B146">
-        <v>145</v>
+        <v>848</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>668</v>
       </c>
       <c r="C146" t="s">
         <v>8</v>
       </c>
       <c r="D146" t="s">
-        <v>480</v>
+        <v>428</v>
       </c>
       <c r="E146" s="1">
         <v>29027</v>
@@ -7677,18 +7281,15 @@
         <v>63</v>
       </c>
       <c r="I146" t="s">
-        <v>481</v>
+        <v>429</v>
       </c>
       <c r="J146" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>739</v>
-      </c>
-      <c r="B147">
-        <v>146</v>
+        <v>849</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>669</v>
       </c>
       <c r="C147" t="s">
         <v>73</v>
@@ -7709,21 +7310,18 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>483</v>
+        <v>430</v>
       </c>
       <c r="J147" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>740</v>
-      </c>
-      <c r="B148">
-        <v>147</v>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>670</v>
       </c>
       <c r="C148" t="s">
-        <v>485</v>
+        <v>431</v>
       </c>
       <c r="D148" t="s">
         <v>155</v>
@@ -7741,30 +7339,27 @@
         <v>43</v>
       </c>
       <c r="I148" t="s">
-        <v>486</v>
+        <v>432</v>
       </c>
       <c r="J148" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>741</v>
-      </c>
-      <c r="B149">
-        <v>148</v>
+        <v>851</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>671</v>
       </c>
       <c r="C149" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="D149" t="s">
-        <v>489</v>
+        <v>434</v>
       </c>
       <c r="E149" s="1">
         <v>34794</v>
       </c>
       <c r="F149" t="s">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="G149" t="s">
         <v>11</v>
@@ -7773,24 +7368,21 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="J149" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>742</v>
-      </c>
-      <c r="B150">
-        <v>149</v>
+        <v>852</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>672</v>
       </c>
       <c r="C150" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="D150" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="E150" s="1">
         <v>32372</v>
@@ -7805,18 +7397,15 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="J150" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>743</v>
-      </c>
-      <c r="B151">
-        <v>150</v>
+        <v>853</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>673</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
@@ -7828,7 +7417,7 @@
         <v>34041</v>
       </c>
       <c r="F151" t="s">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="G151" t="s">
         <v>26</v>
@@ -7837,21 +7426,18 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="J151" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>744</v>
-      </c>
-      <c r="B152">
-        <v>151</v>
+        <v>854</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>674</v>
       </c>
       <c r="C152" t="s">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="D152" t="s">
         <v>84</v>
@@ -7869,24 +7455,21 @@
         <v>63</v>
       </c>
       <c r="I152" t="s">
-        <v>501</v>
+        <v>443</v>
       </c>
       <c r="J152" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>745</v>
-      </c>
-      <c r="B153">
-        <v>152</v>
+        <v>855</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>675</v>
       </c>
       <c r="C153" t="s">
-        <v>503</v>
+        <v>444</v>
       </c>
       <c r="D153" t="s">
-        <v>504</v>
+        <v>445</v>
       </c>
       <c r="E153" s="1">
         <v>33614</v>
@@ -7901,30 +7484,27 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>505</v>
+        <v>446</v>
       </c>
       <c r="J153" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>746</v>
-      </c>
-      <c r="B154">
-        <v>153</v>
+        <v>856</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>676</v>
       </c>
       <c r="C154" t="s">
-        <v>507</v>
+        <v>447</v>
       </c>
       <c r="D154" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
       <c r="E154" s="1">
         <v>34466</v>
       </c>
       <c r="F154" t="s">
-        <v>509</v>
+        <v>449</v>
       </c>
       <c r="G154" t="s">
         <v>35</v>
@@ -7933,21 +7513,18 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="J154" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>747</v>
-      </c>
-      <c r="B155">
-        <v>154</v>
+        <v>857</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>677</v>
       </c>
       <c r="C155" t="s">
-        <v>512</v>
+        <v>451</v>
       </c>
       <c r="D155" t="s">
         <v>158</v>
@@ -7956,7 +7533,7 @@
         <v>36706</v>
       </c>
       <c r="F155" t="s">
-        <v>513</v>
+        <v>452</v>
       </c>
       <c r="G155" t="s">
         <v>21</v>
@@ -7965,24 +7542,21 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>514</v>
+        <v>453</v>
       </c>
       <c r="J155" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>748</v>
-      </c>
-      <c r="B156">
-        <v>155</v>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>678</v>
       </c>
       <c r="C156" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="D156" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
       <c r="E156" s="1">
         <v>31235</v>
@@ -7997,21 +7571,18 @@
         <v>3</v>
       </c>
       <c r="I156" t="s">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="J156" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>749</v>
-      </c>
-      <c r="B157">
-        <v>156</v>
+        <v>859</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>679</v>
       </c>
       <c r="C157" t="s">
-        <v>520</v>
+        <v>457</v>
       </c>
       <c r="D157" t="s">
         <v>9</v>
@@ -8029,24 +7600,21 @@
         <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>521</v>
+        <v>458</v>
       </c>
       <c r="J157" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>750</v>
-      </c>
-      <c r="B158">
-        <v>157</v>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>680</v>
       </c>
       <c r="C158" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="D158" t="s">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="E158" s="1">
         <v>32412</v>
@@ -8061,24 +7629,21 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>525</v>
+        <v>461</v>
       </c>
       <c r="J158" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>751</v>
-      </c>
-      <c r="B159">
-        <v>158</v>
+        <v>861</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>681</v>
       </c>
       <c r="C159" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D159" t="s">
-        <v>527</v>
+        <v>462</v>
       </c>
       <c r="E159" s="1">
         <v>37533</v>
@@ -8093,21 +7658,18 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="J159" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>752</v>
-      </c>
-      <c r="B160">
-        <v>159</v>
+        <v>862</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>682</v>
       </c>
       <c r="C160" t="s">
-        <v>530</v>
+        <v>464</v>
       </c>
       <c r="D160" t="s">
         <v>221</v>
@@ -8125,21 +7687,18 @@
         <v>63</v>
       </c>
       <c r="I160" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="J160" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>753</v>
-      </c>
-      <c r="B161">
-        <v>160</v>
+        <v>863</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>683</v>
       </c>
       <c r="C161" t="s">
-        <v>533</v>
+        <v>466</v>
       </c>
       <c r="D161" t="s">
         <v>54</v>
@@ -8148,7 +7707,7 @@
         <v>32865</v>
       </c>
       <c r="F161" t="s">
-        <v>534</v>
+        <v>467</v>
       </c>
       <c r="G161" t="s">
         <v>21</v>
@@ -8157,21 +7716,18 @@
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>535</v>
+        <v>468</v>
       </c>
       <c r="J161" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>754</v>
-      </c>
-      <c r="B162">
-        <v>161</v>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>684</v>
       </c>
       <c r="C162" t="s">
-        <v>537</v>
+        <v>469</v>
       </c>
       <c r="D162" t="s">
         <v>311</v>
@@ -8180,7 +7736,7 @@
         <v>29982</v>
       </c>
       <c r="F162" t="s">
-        <v>538</v>
+        <v>470</v>
       </c>
       <c r="G162" t="s">
         <v>13</v>
@@ -8189,24 +7745,21 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>539</v>
+        <v>471</v>
       </c>
       <c r="J162" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>755</v>
-      </c>
-      <c r="B163">
-        <v>162</v>
+        <v>865</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>685</v>
       </c>
       <c r="C163" t="s">
-        <v>541</v>
+        <v>472</v>
       </c>
       <c r="D163" t="s">
-        <v>542</v>
+        <v>473</v>
       </c>
       <c r="E163" s="1">
         <v>35836</v>
@@ -8221,27 +7774,27 @@
         <v>2</v>
       </c>
       <c r="I163" t="s">
-        <v>543</v>
+        <v>474</v>
       </c>
       <c r="J163" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>756</v>
+        <v>686</v>
       </c>
       <c r="C164" t="s">
-        <v>582</v>
+        <v>512</v>
       </c>
       <c r="D164" t="s">
-        <v>583</v>
+        <v>513</v>
       </c>
       <c r="E164" s="1">
         <v>27548</v>
       </c>
       <c r="F164" t="s">
-        <v>781</v>
+        <v>711</v>
       </c>
       <c r="G164" t="s">
         <v>26</v>
@@ -8250,24 +7803,27 @@
         <v>5</v>
       </c>
       <c r="I164" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+      <c r="J164" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>757</v>
+        <v>687</v>
       </c>
       <c r="C165" t="s">
-        <v>584</v>
+        <v>514</v>
       </c>
       <c r="D165" t="s">
-        <v>585</v>
+        <v>515</v>
       </c>
       <c r="E165" s="1">
         <v>32679</v>
       </c>
       <c r="F165" t="s">
-        <v>780</v>
+        <v>710</v>
       </c>
       <c r="G165" t="s">
         <v>40</v>
@@ -8276,24 +7832,27 @@
         <v>63</v>
       </c>
       <c r="I165" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+      <c r="J165" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
-        <v>758</v>
+        <v>688</v>
       </c>
       <c r="C166" t="s">
-        <v>586</v>
+        <v>516</v>
       </c>
       <c r="D166" t="s">
-        <v>587</v>
+        <v>517</v>
       </c>
       <c r="E166" s="1">
         <v>34758</v>
       </c>
       <c r="F166" t="s">
-        <v>778</v>
+        <v>708</v>
       </c>
       <c r="G166" t="s">
         <v>23</v>
@@ -8302,24 +7861,27 @@
         <v>43</v>
       </c>
       <c r="I166" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+      <c r="J166" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>759</v>
+        <v>689</v>
       </c>
       <c r="C167" t="s">
-        <v>588</v>
+        <v>518</v>
       </c>
       <c r="D167" t="s">
-        <v>589</v>
+        <v>519</v>
       </c>
       <c r="E167" s="1">
         <v>30691</v>
       </c>
       <c r="F167" t="s">
-        <v>779</v>
+        <v>709</v>
       </c>
       <c r="G167" t="s">
         <v>11</v>
@@ -8328,24 +7890,27 @@
         <v>43</v>
       </c>
       <c r="I167" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+      <c r="J167" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B168" s="2" t="s">
-        <v>590</v>
+        <v>520</v>
       </c>
       <c r="C168" t="s">
-        <v>591</v>
+        <v>521</v>
       </c>
       <c r="D168" t="s">
-        <v>592</v>
+        <v>522</v>
       </c>
       <c r="E168" s="1">
         <v>29800</v>
       </c>
       <c r="F168" t="s">
-        <v>593</v>
+        <v>523</v>
       </c>
       <c r="G168" t="s">
         <v>31</v>
@@ -8354,27 +7919,27 @@
         <v>43</v>
       </c>
       <c r="I168" t="s">
-        <v>799</v>
+        <v>729</v>
       </c>
       <c r="J168" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>801</v>
+        <v>731</v>
       </c>
       <c r="C169" t="s">
-        <v>760</v>
+        <v>690</v>
       </c>
       <c r="D169" t="s">
-        <v>761</v>
+        <v>691</v>
       </c>
       <c r="E169" s="1">
         <v>33559</v>
       </c>
       <c r="F169" t="s">
-        <v>782</v>
+        <v>712</v>
       </c>
       <c r="G169" t="s">
         <v>23</v>
@@ -8383,18 +7948,21 @@
         <v>5</v>
       </c>
       <c r="I169" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+        <v>730</v>
+      </c>
+      <c r="J169" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
-        <v>802</v>
+        <v>732</v>
       </c>
       <c r="C170" t="s">
-        <v>762</v>
+        <v>692</v>
       </c>
       <c r="D170" t="s">
-        <v>763</v>
+        <v>693</v>
       </c>
       <c r="E170" s="1">
         <v>29027</v>
@@ -8409,24 +7977,27 @@
         <v>5</v>
       </c>
       <c r="I170" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+      <c r="J170" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>803</v>
+        <v>733</v>
       </c>
       <c r="C171" t="s">
-        <v>764</v>
+        <v>694</v>
       </c>
       <c r="D171" t="s">
-        <v>765</v>
+        <v>695</v>
       </c>
       <c r="E171" s="1">
         <v>32981</v>
       </c>
       <c r="F171" t="s">
-        <v>784</v>
+        <v>714</v>
       </c>
       <c r="G171" t="s">
         <v>13</v>
@@ -8435,24 +8006,27 @@
         <v>5</v>
       </c>
       <c r="I171" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+      <c r="J171" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>804</v>
+        <v>734</v>
       </c>
       <c r="C172" t="s">
-        <v>767</v>
+        <v>697</v>
       </c>
       <c r="D172" t="s">
-        <v>766</v>
+        <v>696</v>
       </c>
       <c r="E172" s="1">
         <v>22949</v>
       </c>
       <c r="F172" t="s">
-        <v>785</v>
+        <v>715</v>
       </c>
       <c r="G172" t="s">
         <v>18</v>
@@ -8461,24 +8035,27 @@
         <v>5</v>
       </c>
       <c r="I172" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+      <c r="J172" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
-        <v>805</v>
+        <v>735</v>
       </c>
       <c r="C173" t="s">
-        <v>768</v>
+        <v>698</v>
       </c>
       <c r="D173" t="s">
-        <v>769</v>
+        <v>699</v>
       </c>
       <c r="E173" s="1">
         <v>28206</v>
       </c>
       <c r="F173" t="s">
-        <v>783</v>
+        <v>713</v>
       </c>
       <c r="G173" t="s">
         <v>40</v>
@@ -8487,24 +8064,27 @@
         <v>5</v>
       </c>
       <c r="I173" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+      <c r="J173" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
-        <v>806</v>
+        <v>736</v>
       </c>
       <c r="C174" t="s">
-        <v>770</v>
+        <v>700</v>
       </c>
       <c r="D174" t="s">
-        <v>771</v>
+        <v>701</v>
       </c>
       <c r="E174" s="1">
         <v>32679</v>
       </c>
       <c r="F174" t="s">
-        <v>783</v>
+        <v>713</v>
       </c>
       <c r="G174" t="s">
         <v>37</v>
@@ -8513,18 +8093,21 @@
         <v>5</v>
       </c>
       <c r="I174" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+      <c r="J174" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
-        <v>807</v>
+        <v>737</v>
       </c>
       <c r="C175" t="s">
-        <v>773</v>
+        <v>703</v>
       </c>
       <c r="D175" t="s">
-        <v>772</v>
+        <v>702</v>
       </c>
       <c r="E175" s="1">
         <v>26848</v>
@@ -8539,18 +8122,21 @@
         <v>5</v>
       </c>
       <c r="I175" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+      <c r="J175" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
-        <v>808</v>
+        <v>738</v>
       </c>
       <c r="C176" t="s">
-        <v>774</v>
+        <v>704</v>
       </c>
       <c r="D176" t="s">
-        <v>775</v>
+        <v>705</v>
       </c>
       <c r="E176" s="1">
         <v>36021</v>
@@ -8565,24 +8151,27 @@
         <v>5</v>
       </c>
       <c r="I176" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+        <v>723</v>
+      </c>
+      <c r="J176" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
-        <v>809</v>
+        <v>739</v>
       </c>
       <c r="C177" t="s">
-        <v>776</v>
+        <v>706</v>
       </c>
       <c r="D177" t="s">
-        <v>777</v>
+        <v>707</v>
       </c>
       <c r="E177" s="1">
         <v>32412</v>
       </c>
       <c r="F177" t="s">
-        <v>786</v>
+        <v>716</v>
       </c>
       <c r="G177" t="s">
         <v>40</v>
@@ -8591,7 +8180,10 @@
         <v>5</v>
       </c>
       <c r="I177" t="s">
-        <v>794</v>
+        <v>724</v>
+      </c>
+      <c r="J177" t="s">
+        <v>879</v>
       </c>
     </row>
   </sheetData>
